--- a/data/summary.xlsx
+++ b/data/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\detlef\3_papers_in_progress\vv_pb\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/k_vanderwijst_uu_nl/Documents/Documents/Andere projecten/Planetary boundaries/planetary_boundaries/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECA5A17-8CF4-4A85-98F8-73C8915EBFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8ECA5A17-8CF4-4A85-98F8-73C8915EBFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26C09794-57E5-7C49-B092-4C281120D22E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="4" xr2:uid="{E8644350-9DA0-49DE-A583-BAA66682161B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21940" activeTab="4" xr2:uid="{E8644350-9DA0-49DE-A583-BAA66682161B}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables PB" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -295,25 +295,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -334,9 +332,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -374,7 +372,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -480,7 +478,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -622,7 +620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -636,12 +634,12 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="9.140625" style="16"/>
+    <col min="11" max="11" width="9.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
@@ -673,7 +671,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -705,7 +703,7 @@
         <v>4.8160999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -737,7 +735,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
@@ -769,7 +767,7 @@
         <v>17.040199999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -801,7 +799,7 @@
         <v>7.9080000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
@@ -833,7 +831,7 @@
         <v>115.99290000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
@@ -865,7 +863,7 @@
         <v>9.7012</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
@@ -897,7 +895,7 @@
         <v>2741.5228999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
@@ -929,7 +927,7 @@
         <v>4.2172999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
@@ -961,7 +959,7 @@
         <v>60.0379</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>0</v>
       </c>
@@ -992,9 +990,9 @@
       <c r="J11" s="13">
         <v>6.0650969999999997</v>
       </c>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>2</v>
       </c>
@@ -1025,9 +1023,9 @@
       <c r="J12" s="13">
         <v>320</v>
       </c>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -1058,9 +1056,9 @@
       <c r="J13" s="13">
         <v>19.913239999999998</v>
       </c>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
@@ -1091,9 +1089,9 @@
       <c r="J14" s="13">
         <v>7.8369910000000003</v>
       </c>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -1124,9 +1122,9 @@
       <c r="J15" s="13">
         <v>195.72499999999999</v>
       </c>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>9</v>
       </c>
@@ -1157,9 +1155,9 @@
       <c r="J16" s="13">
         <v>17.487462000000001</v>
       </c>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
@@ -1190,9 +1188,9 @@
       <c r="J17" s="13">
         <v>4050.9379709999998</v>
       </c>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>11</v>
       </c>
@@ -1223,9 +1221,9 @@
       <c r="J18" s="13">
         <v>3.5659679999999998</v>
       </c>
-      <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>13</v>
       </c>
@@ -1256,9 +1254,9 @@
       <c r="J19" s="13">
         <v>52.174985</v>
       </c>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +1288,7 @@
         <v>6.6353470000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>2</v>
       </c>
@@ -1322,7 +1320,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>4</v>
       </c>
@@ -1354,7 +1352,7 @@
         <v>23.612703</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
@@ -1386,7 +1384,7 @@
         <v>7.799283</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>8</v>
       </c>
@@ -1418,7 +1416,7 @@
         <v>253.27951999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>9</v>
       </c>
@@ -1450,7 +1448,7 @@
         <v>24.730767</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>10</v>
       </c>
@@ -1482,7 +1480,7 @@
         <v>4609.8588630000004</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>11</v>
       </c>
@@ -1514,7 +1512,7 @@
         <v>3.3677440000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>13</v>
       </c>
@@ -1546,7 +1544,7 @@
         <v>49.255279000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>0</v>
       </c>
@@ -1578,7 +1576,7 @@
         <v>1.8827579999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>2</v>
       </c>
@@ -1610,7 +1608,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -1642,7 +1640,7 @@
         <v>17.868281</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>6</v>
       </c>
@@ -1674,7 +1672,7 @@
         <v>8.0404820000000008</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>8</v>
       </c>
@@ -1706,7 +1704,7 @@
         <v>131.38999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>9</v>
       </c>
@@ -1738,7 +1736,7 @@
         <v>15.577645</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>10</v>
       </c>
@@ -1770,7 +1768,7 @@
         <v>4106.6170940000002</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>11</v>
       </c>
@@ -1802,7 +1800,7 @@
         <v>4.6959989999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>13</v>
       </c>
@@ -1834,7 +1832,7 @@
         <v>62.632328000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>0</v>
       </c>
@@ -1866,7 +1864,7 @@
         <v>1.835931</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>2</v>
       </c>
@@ -1898,7 +1896,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>4</v>
       </c>
@@ -1930,7 +1928,7 @@
         <v>15.568873</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>6</v>
       </c>
@@ -1962,7 +1960,7 @@
         <v>8.0298940000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>8</v>
       </c>
@@ -1994,7 +1992,7 @@
         <v>94.789295999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>9</v>
       </c>
@@ -2026,7 +2024,7 @@
         <v>7.5928899999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>10</v>
       </c>
@@ -2058,7 +2056,7 @@
         <v>2783.2659480000002</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>11</v>
       </c>
@@ -2090,7 +2088,7 @@
         <v>4.9532249999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>13</v>
       </c>
@@ -2135,12 +2133,12 @@
       <selection activeCell="B46" sqref="B2:B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
@@ -2172,7 +2170,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -2209,7 +2207,7 @@
         <v>4.8160999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -2246,7 +2244,7 @@
         <v>3.1250000000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
@@ -2283,7 +2281,7 @@
         <v>17.040199999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -2320,7 +2318,7 @@
         <v>0.12645422357106728</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
@@ -2357,7 +2355,7 @@
         <v>115.99290000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
@@ -2394,7 +2392,7 @@
         <v>9.7012</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
@@ -2431,7 +2429,7 @@
         <v>2741.5228999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
@@ -2468,7 +2466,7 @@
         <v>23.711853555592441</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
@@ -2505,7 +2503,7 @@
         <v>39.9621</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>0</v>
       </c>
@@ -2542,7 +2540,7 @@
         <v>6.0650969999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>2</v>
       </c>
@@ -2579,7 +2577,7 @@
         <v>3.1250000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -2616,7 +2614,7 @@
         <v>19.913239999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
@@ -2653,7 +2651,7 @@
         <v>0.12759999341584033</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -2690,7 +2688,7 @@
         <v>195.72499999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>9</v>
       </c>
@@ -2727,7 +2725,7 @@
         <v>17.487462000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
@@ -2764,7 +2762,7 @@
         <v>4050.9379709999998</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>11</v>
       </c>
@@ -2801,7 +2799,7 @@
         <v>28.042876436356135</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>13</v>
       </c>
@@ -2838,7 +2836,7 @@
         <v>47.825015</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>0</v>
       </c>
@@ -2875,7 +2873,7 @@
         <v>6.6353470000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>2</v>
       </c>
@@ -2912,7 +2910,7 @@
         <v>3.0303030303030303E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>4</v>
       </c>
@@ -2949,7 +2947,7 @@
         <v>23.612703</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
@@ -2986,7 +2984,7 @@
         <v>0.12821691429840409</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>8</v>
       </c>
@@ -3023,7 +3021,7 @@
         <v>253.27951999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>9</v>
       </c>
@@ -3060,7 +3058,7 @@
         <v>24.730767</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>10</v>
       </c>
@@ -3097,7 +3095,7 @@
         <v>4609.8588630000004</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>11</v>
       </c>
@@ -3134,7 +3132,7 @@
         <v>29.693468387145817</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>13</v>
       </c>
@@ -3171,7 +3169,7 @@
         <v>50.744720999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>0</v>
       </c>
@@ -3208,7 +3206,7 @@
         <v>1.8827579999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>2</v>
       </c>
@@ -3245,7 +3243,7 @@
         <v>3.205128205128205E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -3282,7 +3280,7 @@
         <v>17.868281</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>6</v>
       </c>
@@ -3319,7 +3317,7 @@
         <v>0.12437065340112693</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>8</v>
       </c>
@@ -3356,7 +3354,7 @@
         <v>131.38999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>9</v>
       </c>
@@ -3393,7 +3391,7 @@
         <v>15.577645</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>10</v>
       </c>
@@ -3430,7 +3428,7 @@
         <v>4106.6170940000002</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>11</v>
       </c>
@@ -3467,7 +3465,7 @@
         <v>21.294723444361892</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>13</v>
       </c>
@@ -3504,7 +3502,7 @@
         <v>37.367671999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>0</v>
       </c>
@@ -3541,7 +3539,7 @@
         <v>1.835931</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>2</v>
       </c>
@@ -3578,7 +3576,7 @@
         <v>3.205128205128205E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>4</v>
       </c>
@@ -3615,7 +3613,7 @@
         <v>15.568873</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>6</v>
       </c>
@@ -3652,7 +3650,7 @@
         <v>0.12453464516468087</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>8</v>
       </c>
@@ -3689,7 +3687,7 @@
         <v>94.789295999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>9</v>
       </c>
@@ -3726,7 +3724,7 @@
         <v>7.5928899999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>10</v>
       </c>
@@ -3763,7 +3761,7 @@
         <v>2783.2659480000002</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>11</v>
       </c>
@@ -3800,7 +3798,7 @@
         <v>20.188866849375913</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>13</v>
       </c>
@@ -3850,16 +3848,16 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3874,7 +3872,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3897,7 +3895,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3929,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3961,7 +3959,7 @@
         <v>3.0303030303030303E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3981,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" ref="G4:G11" si="1">+D5</f>
+        <f t="shared" ref="G5:G9" si="1">+D5</f>
         <v>10</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H3:H11" si="2">+E5</f>
+        <f t="shared" ref="H5:H9" si="2">+E5</f>
         <v>25</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" ref="I3:I11" si="3">+F5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I5:I9" si="3">+F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -4025,7 +4023,7 @@
         <v>0.12195121951219513</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -4057,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -4089,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -4121,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -4153,7 +4151,7 @@
         <v>15.640899477760598</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -4185,7 +4183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -4217,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -4249,7 +4247,7 @@
         <v>3.0303030303030303E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -4269,19 +4267,19 @@
         <v>0</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" ref="G14:G20" si="6">+D14</f>
+        <f t="shared" ref="G14" si="6">+D14</f>
         <v>10</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" ref="H14:H20" si="7">+E14</f>
+        <f t="shared" ref="H14" si="7">+E14</f>
         <v>25</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" ref="I14:I20" si="8">+F14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I14" si="8">+F14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -4313,7 +4311,7 @@
         <v>0.12195121951219513</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -4333,19 +4331,19 @@
         <v>0</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" ref="G16:G20" si="9">+D16</f>
+        <f t="shared" ref="G16:G18" si="9">+D16</f>
         <v>62</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" ref="H16:H20" si="10">+E16</f>
+        <f t="shared" ref="H16:H18" si="10">+E16</f>
         <v>82</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" ref="I16:I20" si="11">+F16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I16:I18" si="11">+F16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -4377,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -4409,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -4441,7 +4439,7 @@
         <v>15.640899477760598</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -4473,7 +4471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -4505,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -4537,7 +4535,7 @@
         <v>3.0303030303030303E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
@@ -4557,19 +4555,19 @@
         <v>0</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" ref="G23:G29" si="14">+D23</f>
+        <f t="shared" ref="G23" si="14">+D23</f>
         <v>10</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" ref="H23:H29" si="15">+E23</f>
+        <f t="shared" ref="H23" si="15">+E23</f>
         <v>25</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" ref="I23:I29" si="16">+F23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I23" si="16">+F23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -4601,7 +4599,7 @@
         <v>0.12195121951219513</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -4621,19 +4619,19 @@
         <v>0</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" ref="G25:G29" si="17">+D25</f>
+        <f t="shared" ref="G25:G27" si="17">+D25</f>
         <v>62</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" ref="H25:H29" si="18">+E25</f>
+        <f t="shared" ref="H25:H27" si="18">+E25</f>
         <v>82</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" ref="I25:I29" si="19">+F25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I25:I27" si="19">+F25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -4665,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -4697,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -4729,7 +4727,7 @@
         <v>15.640899477760598</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
@@ -4761,7 +4759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -4793,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -4825,7 +4823,7 @@
         <v>3.0303030303030303E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
@@ -4845,19 +4843,19 @@
         <v>0</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" ref="G32:G38" si="22">+D32</f>
+        <f t="shared" ref="G32" si="22">+D32</f>
         <v>10</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" ref="H32:H38" si="23">+E32</f>
+        <f t="shared" ref="H32" si="23">+E32</f>
         <v>25</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" ref="I32:I38" si="24">+F32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I32" si="24">+F32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -4889,7 +4887,7 @@
         <v>0.12195121951219513</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -4909,19 +4907,19 @@
         <v>0</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" ref="G34:G38" si="25">+D34</f>
+        <f t="shared" ref="G34:G36" si="25">+D34</f>
         <v>62</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" ref="H34:H38" si="26">+E34</f>
+        <f t="shared" ref="H34:H36" si="26">+E34</f>
         <v>82</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" ref="I34:I38" si="27">+F34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I34:I36" si="27">+F34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>9</v>
       </c>
@@ -4953,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
@@ -4985,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
@@ -5017,7 +5015,7 @@
         <v>15.640899477760598</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>13</v>
       </c>
@@ -5049,7 +5047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
@@ -5081,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -5113,7 +5111,7 @@
         <v>3.0303030303030303E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5133,19 +5131,19 @@
         <v>0</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" ref="G41:G47" si="30">+D41</f>
+        <f t="shared" ref="G41" si="30">+D41</f>
         <v>10</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" ref="H41:H47" si="31">+E41</f>
+        <f t="shared" ref="H41" si="31">+E41</f>
         <v>25</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" ref="I41:I47" si="32">+F41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I41" si="32">+F41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
@@ -5177,7 +5175,7 @@
         <v>0.12195121951219513</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
@@ -5197,19 +5195,19 @@
         <v>0</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" ref="G43:G47" si="33">+D43</f>
+        <f t="shared" ref="G43:G45" si="33">+D43</f>
         <v>62</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" ref="H43:H47" si="34">+E43</f>
+        <f t="shared" ref="H43:H45" si="34">+E43</f>
         <v>82</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" ref="I43:I47" si="35">+F43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I43:I45" si="35">+F43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>9</v>
       </c>
@@ -5241,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -5273,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -5305,7 +5303,7 @@
         <v>15.640899477760598</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>13</v>
       </c>
@@ -5337,7 +5335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
@@ -5369,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -5401,7 +5399,7 @@
         <v>3.0303030303030303E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>4</v>
       </c>
@@ -5421,19 +5419,19 @@
         <v>0</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" ref="G50:G56" si="38">+D50</f>
+        <f t="shared" ref="G50" si="38">+D50</f>
         <v>10</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" ref="H50:H56" si="39">+E50</f>
+        <f t="shared" ref="H50" si="39">+E50</f>
         <v>25</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" ref="I50:I56" si="40">+F50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I50" si="40">+F50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -5465,7 +5463,7 @@
         <v>0.12195121951219513</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
@@ -5485,19 +5483,19 @@
         <v>0</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" ref="G52:G56" si="41">+D52</f>
+        <f t="shared" ref="G52:G54" si="41">+D52</f>
         <v>62</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" ref="H52:H56" si="42">+E52</f>
+        <f t="shared" ref="H52:H54" si="42">+E52</f>
         <v>82</v>
       </c>
       <c r="I52" s="6">
-        <f t="shared" ref="I52:I56" si="43">+F52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I52:I54" si="43">+F52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
@@ -5529,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
@@ -5561,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>11</v>
       </c>
@@ -5593,7 +5591,7 @@
         <v>15.640899477760598</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>13</v>
       </c>
@@ -5638,12 +5636,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -5663,7 +5661,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -5696,7 +5694,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -5729,7 +5727,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -5762,7 +5760,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -5795,7 +5793,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -5828,7 +5826,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
@@ -5861,7 +5859,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -5894,7 +5892,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
@@ -5927,7 +5925,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -5960,7 +5958,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>0</v>
       </c>
@@ -5991,7 +5989,7 @@
         <v>5.1500881818181812</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>2</v>
       </c>
@@ -6022,7 +6020,7 @@
         <v>0.15797018348623887</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
@@ -6053,7 +6051,7 @@
         <v>1.6608826666666665</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
@@ -6084,7 +6082,7 @@
         <v>3.3176807591076671</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>8</v>
       </c>
@@ -6115,7 +6113,7 @@
         <v>3.3868902439024389</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
@@ -6146,7 +6144,7 @@
         <v>2.561380535714286</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
@@ -6177,7 +6175,7 @@
         <v>1.0254689854999999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>11</v>
       </c>
@@ -6208,7 +6206,7 @@
         <v>1.8863450911398367</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>13</v>
       </c>
@@ -6239,7 +6237,7 @@
         <v>2.2825015</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>0</v>
       </c>
@@ -6270,7 +6268,7 @@
         <v>5.6684972727272722</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>2</v>
       </c>
@@ -6301,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>4</v>
       </c>
@@ -6332,7 +6330,7 @@
         <v>1.9075135333333333</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>6</v>
       </c>
@@ -6363,7 +6361,7 @@
         <v>3.8087405278151869</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>8</v>
       </c>
@@ -6394,7 +6392,7 @@
         <v>4.0887746341463416</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>9</v>
       </c>
@@ -6425,7 +6423,7 @@
         <v>3.2081041964285717</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>10</v>
       </c>
@@ -6456,7 +6454,7 @@
         <v>1.3049294315000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>11</v>
       </c>
@@ -6487,7 +6485,7 @@
         <v>2.089868199429934</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>13</v>
       </c>
@@ -6518,7 +6516,7 @@
         <v>2.5744720999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>0</v>
       </c>
@@ -6549,7 +6547,7 @@
         <v>1.347961818181818</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>2</v>
       </c>
@@ -6580,7 +6578,7 @@
         <v>0.29163726182074795</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>4</v>
       </c>
@@ -6611,7 +6609,7 @@
         <v>1.5245520666666668</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>6</v>
       </c>
@@ -6642,7 +6640,7 @@
         <v>0.88395361262061856</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>8</v>
       </c>
@@ -6673,7 +6671,7 @@
         <v>2.6023170731707315</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>9</v>
       </c>
@@ -6704,7 +6702,7 @@
         <v>2.3908611607142856</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>10</v>
       </c>
@@ -6735,7 +6733,7 @@
         <v>1.0533085470000001</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>11</v>
       </c>
@@ -6766,7 +6764,7 @@
         <v>1.0542768919154792</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>13</v>
       </c>
@@ -6797,7 +6795,7 @@
         <v>1.2367671999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>0</v>
       </c>
@@ -6828,7 +6826,7 @@
         <v>1.305391818181818</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>2</v>
       </c>
@@ -6859,7 +6857,7 @@
         <v>0.29163726182074795</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>4</v>
       </c>
@@ -6890,7 +6888,7 @@
         <v>1.3712582</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>6</v>
       </c>
@@ -6921,7 +6919,7 @@
         <v>0.94386891450040034</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>8</v>
       </c>
@@ -6952,7 +6950,7 @@
         <v>2.155967024390244</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>9</v>
       </c>
@@ -6983,7 +6981,7 @@
         <v>1.278578</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>10</v>
       </c>
@@ -7014,7 +7012,7 @@
         <v>0.69581648700000009</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>11</v>
       </c>
@@ -7045,7 +7043,7 @@
         <v>0.87232208918388143</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>13</v>
       </c>
@@ -7085,13 +7083,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B44E7A-B07B-4ACA-9B8F-A4544C009154}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>43</v>
       </c>
@@ -7123,7 +7124,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -7155,7 +7156,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -7175,7 +7176,7 @@
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
@@ -7207,7 +7208,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
@@ -7239,7 +7240,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
@@ -7271,7 +7272,7 @@
         <v>323.15899999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
@@ -7303,7 +7304,7 @@
         <v>136.34663710000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
@@ -7335,7 +7336,7 @@
         <v>2741.5229239999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
@@ -7367,7 +7368,7 @@
         <v>4172.9651999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
@@ -7380,7 +7381,7 @@
       <c r="D10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="13">
@@ -7399,7 +7400,7 @@
         <v>60.037910940000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>0</v>
       </c>
@@ -7415,23 +7416,23 @@
       <c r="E11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="17">
         <v>24.2</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="17">
         <v>51.3</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <v>62.4</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="17">
         <v>71</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="17">
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>2</v>
       </c>
@@ -7451,7 +7452,7 @@
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
@@ -7483,7 +7484,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>6</v>
       </c>
@@ -7499,23 +7500,23 @@
       <c r="E14" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="17">
         <v>17</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="17">
         <v>38.9</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <v>47.7</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="17">
         <v>54</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="17">
         <v>48.6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>39</v>
       </c>
@@ -7547,7 +7548,7 @@
         <v>323.15899999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>40</v>
       </c>
@@ -7579,7 +7580,7 @@
         <v>136.34663710000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
@@ -7611,7 +7612,7 @@
         <v>4050.9379709999998</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>11</v>
       </c>
@@ -7643,7 +7644,7 @@
         <v>5614.6940000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>13</v>
       </c>
@@ -7656,7 +7657,7 @@
       <c r="D19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="13">
@@ -7675,7 +7676,7 @@
         <v>52.174985409999998</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>0</v>
       </c>
@@ -7691,23 +7692,23 @@
       <c r="E20" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="17">
         <v>24.2</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="17">
         <v>51.3</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="17">
         <v>66.2</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="17">
         <v>81</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="17">
         <v>83.9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>2</v>
       </c>
@@ -7727,7 +7728,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>4</v>
       </c>
@@ -7759,7 +7760,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>6</v>
       </c>
@@ -7775,23 +7776,23 @@
       <c r="E23" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="17">
         <v>17</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="17">
         <v>38.9</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="17">
         <v>50.9</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="17">
         <v>62.3</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="17">
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>39</v>
       </c>
@@ -7823,7 +7824,7 @@
         <v>323.15899999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>40</v>
       </c>
@@ -7855,7 +7856,7 @@
         <v>136.34663710000001</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>10</v>
       </c>
@@ -7887,7 +7888,7 @@
         <v>4609.8588630000004</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>11</v>
       </c>
@@ -7919,7 +7920,7 @@
         <v>5998.8896000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>13</v>
       </c>
@@ -7932,7 +7933,7 @@
       <c r="D28" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F28" s="13">
@@ -7951,7 +7952,7 @@
         <v>49.255278709999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>0</v>
       </c>
@@ -7967,23 +7968,23 @@
       <c r="E29" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="17">
         <v>24.4</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="17">
         <v>52.6</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="17">
         <v>33.700000000000003</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="17">
         <v>4.6500000000000004</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="17">
         <v>-5.69</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>2</v>
       </c>
@@ -8003,7 +8004,7 @@
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>4</v>
       </c>
@@ -8035,7 +8036,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>6</v>
       </c>
@@ -8051,23 +8052,23 @@
       <c r="E32" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="17">
         <v>17</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="17">
         <v>38.9</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="17">
         <v>22.4</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="17">
         <v>-3.55</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="17">
         <v>-12.6</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>39</v>
       </c>
@@ -8099,7 +8100,7 @@
         <v>241.02199999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>40</v>
       </c>
@@ -8131,7 +8132,7 @@
         <v>117.41061190000001</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>10</v>
       </c>
@@ -8163,7 +8164,7 @@
         <v>4106.6170940000002</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>11</v>
       </c>
@@ -8195,7 +8196,7 @@
         <v>4441.6959999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>13</v>
       </c>
@@ -8208,7 +8209,7 @@
       <c r="D37" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F37" s="13">
@@ -8227,7 +8228,7 @@
         <v>62.632328270000002</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>0</v>
       </c>
@@ -8243,23 +8244,23 @@
       <c r="E38" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="17">
         <v>24.4</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="17">
         <v>52.6</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="17">
         <v>38.299999999999997</v>
       </c>
       <c r="I38" s="13">
         <v>6.08</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J38" s="17">
         <v>-5.48</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>2</v>
       </c>
@@ -8279,7 +8280,7 @@
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>4</v>
       </c>
@@ -8311,7 +8312,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>6</v>
       </c>
@@ -8327,23 +8328,23 @@
       <c r="E41" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="17">
         <v>17</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="17">
         <v>38.9</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="17">
         <v>27.2</v>
       </c>
       <c r="I41" s="13">
         <v>-0.77</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J41" s="17">
         <v>-11.6</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>39</v>
       </c>
@@ -8375,7 +8376,7 @@
         <v>184.0825959</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>40</v>
       </c>
@@ -8407,7 +8408,7 @@
         <v>85.161742000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>10</v>
       </c>
@@ -8439,7 +8440,7 @@
         <v>2783.2659480000002</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>11</v>
       </c>
@@ -8471,7 +8472,7 @@
         <v>4180.0541999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>13</v>
       </c>
@@ -8484,7 +8485,7 @@
       <c r="D46" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F46" s="13">

--- a/data/summary.xlsx
+++ b/data/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/k_vanderwijst_uu_nl/Documents/Documents/Andere projecten/Planetary boundaries/planetary_boundaries/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8ECA5A17-8CF4-4A85-98F8-73C8915EBFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26C09794-57E5-7C49-B092-4C281120D22E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B74E633-C4E0-0B42-8B4D-29D5BB70F5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21940" activeTab="4" xr2:uid="{E8644350-9DA0-49DE-A583-BAA66682161B}"/>
+    <workbookView xWindow="-120" yWindow="760" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{E8644350-9DA0-49DE-A583-BAA66682161B}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables PB" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,11 @@
     <sheet name="Values in Figures" sheetId="3" r:id="rId4"/>
     <sheet name="Pressures" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PB_limits!$A$1:$I$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Values in Figures'!$A$1:$H$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Variables PB'!$A$1:$J$55</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="58">
   <si>
     <t>Climate change</t>
   </si>
@@ -209,6 +214,12 @@
   <si>
     <t>million ha</t>
   </si>
+  <si>
+    <t>SSP2_nexus</t>
+  </si>
+  <si>
+    <t>SSP2_Su</t>
+  </si>
 </sst>
 </file>
 
@@ -239,7 +250,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +293,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -295,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -314,6 +331,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,16 +647,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C0F750-2E21-4764-926B-D9412B16F0F9}">
-  <dimension ref="A1:K46"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="11" max="11" width="9.1640625"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
@@ -671,7 +688,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -703,7 +720,7 @@
         <v>4.8160999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -735,7 +752,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
@@ -751,23 +768,21 @@
       <c r="E4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="13">
-        <v>24.113700000000001</v>
-      </c>
-      <c r="G4" s="13">
-        <v>24.474499999999999</v>
-      </c>
-      <c r="H4" s="13">
-        <v>24.617999999999999</v>
-      </c>
-      <c r="I4" s="13">
-        <v>22.688099999999999</v>
-      </c>
-      <c r="J4" s="13">
-        <v>17.040199999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F4" s="18">
+        <v>22</v>
+      </c>
+      <c r="G4" s="18">
+        <v>22.5</v>
+      </c>
+      <c r="H4" s="18">
+        <v>19.7</v>
+      </c>
+      <c r="I4" s="18">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -799,7 +814,7 @@
         <v>7.9080000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
@@ -831,7 +846,7 @@
         <v>115.99290000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
@@ -863,7 +878,7 @@
         <v>9.7012</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
@@ -895,7 +910,7 @@
         <v>2741.5228999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
@@ -943,23 +958,23 @@
       <c r="E10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="13">
-        <v>68.694900000000004</v>
-      </c>
-      <c r="G10" s="13">
-        <v>63.848700000000001</v>
-      </c>
-      <c r="H10" s="13">
-        <v>62.561399999999999</v>
-      </c>
-      <c r="I10" s="13">
-        <v>62.041800000000002</v>
-      </c>
-      <c r="J10" s="13">
-        <v>60.0379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F10" s="18">
+        <v>59.752267600000003</v>
+      </c>
+      <c r="G10" s="18">
+        <v>54.111653570000001</v>
+      </c>
+      <c r="H10" s="18">
+        <v>52.56758928</v>
+      </c>
+      <c r="I10" s="18">
+        <v>51.881808040000003</v>
+      </c>
+      <c r="J10" s="18">
+        <v>49.588924650000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>0</v>
       </c>
@@ -992,7 +1007,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>2</v>
       </c>
@@ -1025,7 +1040,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -1041,24 +1056,22 @@
       <c r="E13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="13">
-        <v>24.113668000000001</v>
-      </c>
-      <c r="G13" s="13">
-        <v>24.466687</v>
-      </c>
-      <c r="H13" s="13">
-        <v>27.061112999999999</v>
-      </c>
-      <c r="I13" s="13">
-        <v>26.793984999999999</v>
-      </c>
-      <c r="J13" s="13">
-        <v>19.913239999999998</v>
-      </c>
+      <c r="F13" s="18">
+        <v>22</v>
+      </c>
+      <c r="G13" s="18">
+        <v>22.5</v>
+      </c>
+      <c r="H13" s="18">
+        <v>21.5</v>
+      </c>
+      <c r="I13" s="18">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J13" s="13"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
@@ -1091,7 +1104,7 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>8</v>
       </c>
@@ -1124,7 +1137,7 @@
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>9</v>
       </c>
@@ -1157,7 +1170,7 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
@@ -1190,7 +1203,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>11</v>
       </c>
@@ -1239,24 +1252,24 @@
       <c r="E19" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="13">
-        <v>68.694462999999999</v>
-      </c>
-      <c r="G19" s="13">
-        <v>63.843631999999999</v>
-      </c>
-      <c r="H19" s="13">
-        <v>61.882081999999997</v>
-      </c>
-      <c r="I19" s="13">
-        <v>58.957360999999999</v>
-      </c>
-      <c r="J19" s="13">
-        <v>52.174985</v>
+      <c r="F19" s="18">
+        <v>59.752184149999998</v>
+      </c>
+      <c r="G19" s="18">
+        <v>54.111510520000003</v>
+      </c>
+      <c r="H19" s="18">
+        <v>51.763480899999998</v>
+      </c>
+      <c r="I19" s="18">
+        <v>48.197808860000002</v>
+      </c>
+      <c r="J19" s="18">
+        <v>40.509599450000003</v>
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1301,7 @@
         <v>6.6353470000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>2</v>
       </c>
@@ -1320,7 +1333,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>4</v>
       </c>
@@ -1336,23 +1349,21 @@
       <c r="E22" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="13">
-        <v>24.113727999999998</v>
-      </c>
-      <c r="G22" s="13">
-        <v>24.468495000000001</v>
-      </c>
-      <c r="H22" s="13">
-        <v>28.093798</v>
-      </c>
-      <c r="I22" s="13">
-        <v>29.367218000000001</v>
-      </c>
-      <c r="J22" s="13">
-        <v>23.612703</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F22" s="18">
+        <v>22</v>
+      </c>
+      <c r="G22" s="18">
+        <v>22.5</v>
+      </c>
+      <c r="H22" s="18">
+        <v>22.7</v>
+      </c>
+      <c r="I22" s="18">
+        <v>22.2</v>
+      </c>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
@@ -1384,7 +1395,7 @@
         <v>7.799283</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>8</v>
       </c>
@@ -1416,7 +1427,7 @@
         <v>253.27951999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>9</v>
       </c>
@@ -1448,7 +1459,7 @@
         <v>24.730767</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>10</v>
       </c>
@@ -1480,7 +1491,7 @@
         <v>4609.8588630000004</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>11</v>
       </c>
@@ -1528,23 +1539,23 @@
       <c r="E28" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="13">
-        <v>68.694897999999995</v>
-      </c>
-      <c r="G28" s="13">
-        <v>63.829884</v>
-      </c>
-      <c r="H28" s="13">
-        <v>61.570328000000003</v>
-      </c>
-      <c r="I28" s="13">
-        <v>57.612672000000003</v>
-      </c>
-      <c r="J28" s="13">
-        <v>49.255279000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F28" s="18">
+        <v>59.752267600000003</v>
+      </c>
+      <c r="G28" s="18">
+        <v>54.109036920000001</v>
+      </c>
+      <c r="H28" s="18">
+        <v>51.418477299999999</v>
+      </c>
+      <c r="I28" s="18">
+        <v>46.699881550000001</v>
+      </c>
+      <c r="J28" s="18">
+        <v>37.253677850000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>0</v>
       </c>
@@ -1576,7 +1587,7 @@
         <v>1.8827579999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>2</v>
       </c>
@@ -1608,7 +1619,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>4</v>
       </c>
@@ -1624,23 +1635,21 @@
       <c r="E31" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="13">
-        <v>24.116879999999998</v>
-      </c>
-      <c r="G31" s="13">
-        <v>24.487956000000001</v>
-      </c>
-      <c r="H31" s="13">
-        <v>24.367249999999999</v>
-      </c>
-      <c r="I31" s="13">
-        <v>22.360810000000001</v>
-      </c>
-      <c r="J31" s="13">
-        <v>17.868281</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F31" s="18">
+        <v>22</v>
+      </c>
+      <c r="G31" s="18">
+        <v>22.5</v>
+      </c>
+      <c r="H31" s="18">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I31" s="18">
+        <v>12.5</v>
+      </c>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>6</v>
       </c>
@@ -1672,7 +1681,7 @@
         <v>8.0404820000000008</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>8</v>
       </c>
@@ -1704,7 +1713,7 @@
         <v>131.38999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>9</v>
       </c>
@@ -1736,7 +1745,7 @@
         <v>15.577645</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>10</v>
       </c>
@@ -1768,7 +1777,7 @@
         <v>4106.6170940000002</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>11</v>
       </c>
@@ -1816,23 +1825,23 @@
       <c r="E37" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="13">
-        <v>68.694462999999999</v>
-      </c>
-      <c r="G37" s="13">
-        <v>63.843631999999999</v>
-      </c>
-      <c r="H37" s="13">
-        <v>62.268760999999998</v>
-      </c>
-      <c r="I37" s="13">
-        <v>61.732461999999998</v>
-      </c>
-      <c r="J37" s="13">
-        <v>62.632328000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F37" s="18">
+        <v>59.752184149999998</v>
+      </c>
+      <c r="G37" s="18">
+        <v>54.111510520000003</v>
+      </c>
+      <c r="H37" s="18">
+        <v>52.280998230000002</v>
+      </c>
+      <c r="I37" s="18">
+        <v>51.698392630000001</v>
+      </c>
+      <c r="J37" s="18">
+        <v>53.087824580000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>0</v>
       </c>
@@ -1864,7 +1873,7 @@
         <v>1.835931</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>2</v>
       </c>
@@ -1896,7 +1905,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>4</v>
       </c>
@@ -1912,23 +1921,21 @@
       <c r="E40" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="13">
-        <v>24.077559999999998</v>
-      </c>
-      <c r="G40" s="13">
-        <v>24.444199000000001</v>
-      </c>
-      <c r="H40" s="13">
-        <v>23.294324</v>
-      </c>
-      <c r="I40" s="13">
-        <v>20.126856</v>
-      </c>
-      <c r="J40" s="13">
-        <v>15.568873</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F40" s="18">
+        <v>22</v>
+      </c>
+      <c r="G40" s="18">
+        <v>22.5</v>
+      </c>
+      <c r="H40" s="18">
+        <v>16.3</v>
+      </c>
+      <c r="I40" s="18">
+        <v>10.3</v>
+      </c>
+      <c r="J40" s="13"/>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>6</v>
       </c>
@@ -1960,7 +1967,7 @@
         <v>8.0298940000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>8</v>
       </c>
@@ -1992,7 +1999,7 @@
         <v>94.789295999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>9</v>
       </c>
@@ -2024,7 +2031,7 @@
         <v>7.5928899999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>10</v>
       </c>
@@ -2056,7 +2063,7 @@
         <v>2783.2659480000002</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>11</v>
       </c>
@@ -2104,33 +2111,326 @@
       <c r="E46" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="13">
-        <v>68.694484000000003</v>
-      </c>
-      <c r="G46" s="13">
-        <v>63.836098</v>
-      </c>
-      <c r="H46" s="13">
-        <v>62.729204000000003</v>
-      </c>
-      <c r="I46" s="13">
-        <v>63.569364</v>
-      </c>
-      <c r="J46" s="13">
-        <v>63.158524</v>
+      <c r="F46" s="18">
+        <v>59.752184149999998</v>
+      </c>
+      <c r="G46" s="18">
+        <v>54.102998970000002</v>
+      </c>
+      <c r="H46" s="18">
+        <v>52.867025140000003</v>
+      </c>
+      <c r="I46" s="18">
+        <v>54.01</v>
+      </c>
+      <c r="J46" s="18">
+        <v>53.861504789999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="18">
+        <v>0.77102899999999996</v>
+      </c>
+      <c r="G47" s="18">
+        <v>2.4077389999999999</v>
+      </c>
+      <c r="H47" s="18">
+        <v>3.1114630000000001</v>
+      </c>
+      <c r="I47" s="18">
+        <v>3.6441370000000002</v>
+      </c>
+      <c r="J47" s="18">
+        <v>5.6499290000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="18">
+        <v>320</v>
+      </c>
+      <c r="G48" s="18">
+        <v>280</v>
+      </c>
+      <c r="H48" s="18">
+        <v>295</v>
+      </c>
+      <c r="I48" s="18">
+        <v>310</v>
+      </c>
+      <c r="J48" s="18">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="18">
+        <v>22</v>
+      </c>
+      <c r="G49" s="18">
+        <v>22.5</v>
+      </c>
+      <c r="H49" s="18">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I49" s="18">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="18">
+        <v>8.1170449999999992</v>
+      </c>
+      <c r="G50" s="18">
+        <v>8.0529279999999996</v>
+      </c>
+      <c r="H50" s="18">
+        <v>8.0205020000000005</v>
+      </c>
+      <c r="I50" s="18">
+        <v>7.9722799999999996</v>
+      </c>
+      <c r="J50" s="18">
+        <v>7.8511090000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="18">
+        <v>68.750310999999996</v>
+      </c>
+      <c r="G51" s="18">
+        <v>131.48500000000001</v>
+      </c>
+      <c r="H51" s="18">
+        <v>121.128</v>
+      </c>
+      <c r="I51" s="18">
+        <v>97.189314999999993</v>
+      </c>
+      <c r="J51" s="18">
+        <v>109.438</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="18">
+        <v>7.5545</v>
+      </c>
+      <c r="G52" s="18">
+        <v>11.955811000000001</v>
+      </c>
+      <c r="H52" s="18">
+        <v>8.8832170000000001</v>
+      </c>
+      <c r="I52" s="18">
+        <v>5.4583110000000001</v>
+      </c>
+      <c r="J52" s="18">
+        <v>8.8417940000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="18">
+        <v>2289.558094</v>
+      </c>
+      <c r="G53" s="18">
+        <v>3257.352061</v>
+      </c>
+      <c r="H53" s="18">
+        <v>3176.3519240000001</v>
+      </c>
+      <c r="I53" s="18">
+        <v>3220.0418920000002</v>
+      </c>
+      <c r="J53" s="18">
+        <v>2685.2770449999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="18">
+        <v>4.1925160000000004</v>
+      </c>
+      <c r="G54" s="18">
+        <v>3.9619010000000001</v>
+      </c>
+      <c r="H54" s="18">
+        <v>3.9439259999999998</v>
+      </c>
+      <c r="I54" s="18">
+        <v>4.1413520000000004</v>
+      </c>
+      <c r="J54" s="18">
+        <v>4.090122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="18">
+        <v>59.752184149999998</v>
+      </c>
+      <c r="G55" s="18">
+        <v>54.102998970000002</v>
+      </c>
+      <c r="H55" s="18">
+        <v>53.15178633</v>
+      </c>
+      <c r="I55" s="18">
+        <v>53.06</v>
+      </c>
+      <c r="J55" s="18">
+        <v>46.55096829</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J55" xr:uid="{68C0F750-2E21-4764-926B-D9412B16F0F9}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="MSA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8808F91C-1A55-4CAC-B12D-4A67D06D12ED}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B2:B46"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2262,23 +2562,23 @@
       </c>
       <c r="F4" s="13">
         <f>+'Variables PB'!F4</f>
-        <v>24.113700000000001</v>
+        <v>22</v>
       </c>
       <c r="G4" s="13">
         <f>+'Variables PB'!G4</f>
-        <v>24.474499999999999</v>
+        <v>22.5</v>
       </c>
       <c r="H4" s="13">
         <f>+'Variables PB'!H4</f>
-        <v>24.617999999999999</v>
+        <v>19.7</v>
       </c>
       <c r="I4" s="13">
         <f>+'Variables PB'!I4</f>
-        <v>22.688099999999999</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="J4" s="13">
         <f>+'Variables PB'!J4</f>
-        <v>17.040199999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2484,23 +2784,23 @@
       </c>
       <c r="F10" s="13">
         <f>100-'Variables PB'!F10</f>
-        <v>31.305099999999996</v>
+        <v>40.247732399999997</v>
       </c>
       <c r="G10" s="13">
         <f>100-'Variables PB'!G10</f>
-        <v>36.151299999999999</v>
+        <v>45.888346429999999</v>
       </c>
       <c r="H10" s="13">
         <f>100-'Variables PB'!H10</f>
-        <v>37.438600000000001</v>
+        <v>47.43241072</v>
       </c>
       <c r="I10" s="13">
         <f>100-'Variables PB'!I10</f>
-        <v>37.958199999999998</v>
+        <v>48.118191959999997</v>
       </c>
       <c r="J10" s="13">
         <f>100-'Variables PB'!J10</f>
-        <v>39.9621</v>
+        <v>50.411075349999997</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -2595,23 +2895,23 @@
       </c>
       <c r="F13" s="13">
         <f>+'Variables PB'!F13</f>
-        <v>24.113668000000001</v>
+        <v>22</v>
       </c>
       <c r="G13" s="13">
         <f>+'Variables PB'!G13</f>
-        <v>24.466687</v>
+        <v>22.5</v>
       </c>
       <c r="H13" s="13">
         <f>+'Variables PB'!H13</f>
-        <v>27.061112999999999</v>
+        <v>21.5</v>
       </c>
       <c r="I13" s="13">
         <f>+'Variables PB'!I13</f>
-        <v>26.793984999999999</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="J13" s="13">
         <f>+'Variables PB'!J13</f>
-        <v>19.913239999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -2817,23 +3117,23 @@
       </c>
       <c r="F19" s="13">
         <f>100-'Variables PB'!F19</f>
-        <v>31.305537000000001</v>
+        <v>40.247815850000002</v>
       </c>
       <c r="G19" s="13">
         <f>100-'Variables PB'!G19</f>
-        <v>36.156368000000001</v>
+        <v>45.888489479999997</v>
       </c>
       <c r="H19" s="13">
         <f>100-'Variables PB'!H19</f>
-        <v>38.117918000000003</v>
+        <v>48.236519100000002</v>
       </c>
       <c r="I19" s="13">
         <f>100-'Variables PB'!I19</f>
-        <v>41.042639000000001</v>
+        <v>51.802191139999998</v>
       </c>
       <c r="J19" s="13">
         <f>100-'Variables PB'!J19</f>
-        <v>47.825015</v>
+        <v>59.490400549999997</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -2928,23 +3228,23 @@
       </c>
       <c r="F22" s="13">
         <f>+'Variables PB'!F22</f>
-        <v>24.113727999999998</v>
+        <v>22</v>
       </c>
       <c r="G22" s="13">
         <f>+'Variables PB'!G22</f>
-        <v>24.468495000000001</v>
+        <v>22.5</v>
       </c>
       <c r="H22" s="13">
         <f>+'Variables PB'!H22</f>
-        <v>28.093798</v>
+        <v>22.7</v>
       </c>
       <c r="I22" s="13">
         <f>+'Variables PB'!I22</f>
-        <v>29.367218000000001</v>
+        <v>22.2</v>
       </c>
       <c r="J22" s="13">
         <f>+'Variables PB'!J22</f>
-        <v>23.612703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -3150,23 +3450,23 @@
       </c>
       <c r="F28" s="13">
         <f>100-'Variables PB'!F28</f>
-        <v>31.305102000000005</v>
+        <v>40.247732399999997</v>
       </c>
       <c r="G28" s="13">
         <f>100-'Variables PB'!G28</f>
-        <v>36.170116</v>
+        <v>45.890963079999999</v>
       </c>
       <c r="H28" s="13">
         <f>100-'Variables PB'!H28</f>
-        <v>38.429671999999997</v>
+        <v>48.581522700000001</v>
       </c>
       <c r="I28" s="13">
         <f>100-'Variables PB'!I28</f>
-        <v>42.387327999999997</v>
+        <v>53.300118449999999</v>
       </c>
       <c r="J28" s="13">
         <f>100-'Variables PB'!J28</f>
-        <v>50.744720999999998</v>
+        <v>62.746322149999997</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -3261,23 +3561,23 @@
       </c>
       <c r="F31" s="13">
         <f>+'Variables PB'!F31</f>
-        <v>24.116879999999998</v>
+        <v>22</v>
       </c>
       <c r="G31" s="13">
         <f>+'Variables PB'!G31</f>
-        <v>24.487956000000001</v>
+        <v>22.5</v>
       </c>
       <c r="H31" s="13">
         <f>+'Variables PB'!H31</f>
-        <v>24.367249999999999</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="I31" s="13">
         <f>+'Variables PB'!I31</f>
-        <v>22.360810000000001</v>
+        <v>12.5</v>
       </c>
       <c r="J31" s="13">
         <f>+'Variables PB'!J31</f>
-        <v>17.868281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -3483,23 +3783,23 @@
       </c>
       <c r="F37" s="13">
         <f>100-'Variables PB'!F37</f>
-        <v>31.305537000000001</v>
+        <v>40.247815850000002</v>
       </c>
       <c r="G37" s="13">
         <f>100-'Variables PB'!G37</f>
-        <v>36.156368000000001</v>
+        <v>45.888489479999997</v>
       </c>
       <c r="H37" s="13">
         <f>100-'Variables PB'!H37</f>
-        <v>37.731239000000002</v>
+        <v>47.719001769999998</v>
       </c>
       <c r="I37" s="13">
         <f>100-'Variables PB'!I37</f>
-        <v>38.267538000000002</v>
+        <v>48.301607369999999</v>
       </c>
       <c r="J37" s="13">
         <f>100-'Variables PB'!J37</f>
-        <v>37.367671999999999</v>
+        <v>46.912175419999997</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -3594,23 +3894,23 @@
       </c>
       <c r="F40" s="13">
         <f>+'Variables PB'!F40</f>
-        <v>24.077559999999998</v>
+        <v>22</v>
       </c>
       <c r="G40" s="13">
         <f>+'Variables PB'!G40</f>
-        <v>24.444199000000001</v>
+        <v>22.5</v>
       </c>
       <c r="H40" s="13">
         <f>+'Variables PB'!H40</f>
-        <v>23.294324</v>
+        <v>16.3</v>
       </c>
       <c r="I40" s="13">
         <f>+'Variables PB'!I40</f>
-        <v>20.126856</v>
+        <v>10.3</v>
       </c>
       <c r="J40" s="13">
         <f>+'Variables PB'!J40</f>
-        <v>15.568873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -3816,23 +4116,356 @@
       </c>
       <c r="F46" s="13">
         <f>100-'Variables PB'!F46</f>
-        <v>31.305515999999997</v>
+        <v>40.247815850000002</v>
       </c>
       <c r="G46" s="13">
         <f>100-'Variables PB'!G46</f>
-        <v>36.163902</v>
+        <v>45.897001029999998</v>
       </c>
       <c r="H46" s="13">
         <f>100-'Variables PB'!H46</f>
-        <v>37.270795999999997</v>
+        <v>47.132974859999997</v>
       </c>
       <c r="I46" s="13">
         <f>100-'Variables PB'!I46</f>
-        <v>36.430636</v>
+        <v>45.99</v>
       </c>
       <c r="J46" s="13">
         <f>100-'Variables PB'!J46</f>
-        <v>36.841476</v>
+        <v>46.138495210000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="13">
+        <f>+'Variables PB'!F47</f>
+        <v>0.77102899999999996</v>
+      </c>
+      <c r="G47" s="13">
+        <f>+'Variables PB'!G47</f>
+        <v>2.4077389999999999</v>
+      </c>
+      <c r="H47" s="13">
+        <f>+'Variables PB'!H47</f>
+        <v>3.1114630000000001</v>
+      </c>
+      <c r="I47" s="13">
+        <f>+'Variables PB'!I47</f>
+        <v>3.6441370000000002</v>
+      </c>
+      <c r="J47" s="13">
+        <f>+'Variables PB'!J47</f>
+        <v>5.6499290000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="13">
+        <f>1/'Variables PB'!F48</f>
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="G48" s="13">
+        <f>1/'Variables PB'!G48</f>
+        <v>3.5714285714285713E-3</v>
+      </c>
+      <c r="H48" s="13">
+        <f>1/'Variables PB'!H48</f>
+        <v>3.3898305084745762E-3</v>
+      </c>
+      <c r="I48" s="13">
+        <f>1/'Variables PB'!I48</f>
+        <v>3.2258064516129032E-3</v>
+      </c>
+      <c r="J48" s="13">
+        <f>1/'Variables PB'!J48</f>
+        <v>3.1250000000000002E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="13">
+        <f>+'Variables PB'!F49</f>
+        <v>22</v>
+      </c>
+      <c r="G49" s="13">
+        <f>+'Variables PB'!G49</f>
+        <v>22.5</v>
+      </c>
+      <c r="H49" s="13">
+        <f>+'Variables PB'!H49</f>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I49" s="13">
+        <f>+'Variables PB'!I49</f>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J49" s="13">
+        <f>+'Variables PB'!J49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="13">
+        <f>1/'Variables PB'!F50</f>
+        <v>0.12319754294820345</v>
+      </c>
+      <c r="G50" s="13">
+        <f>1/'Variables PB'!G50</f>
+        <v>0.12417843547092437</v>
+      </c>
+      <c r="H50" s="13">
+        <f>1/'Variables PB'!H50</f>
+        <v>0.12468047511240568</v>
+      </c>
+      <c r="I50" s="13">
+        <f>1/'Variables PB'!I50</f>
+        <v>0.12543463099640254</v>
+      </c>
+      <c r="J50" s="13">
+        <f>1/'Variables PB'!J50</f>
+        <v>0.12737054090065492</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="13">
+        <f>+'Variables PB'!F51</f>
+        <v>68.750310999999996</v>
+      </c>
+      <c r="G51" s="13">
+        <f>+'Variables PB'!G51</f>
+        <v>131.48500000000001</v>
+      </c>
+      <c r="H51" s="13">
+        <f>+'Variables PB'!H51</f>
+        <v>121.128</v>
+      </c>
+      <c r="I51" s="13">
+        <f>+'Variables PB'!I51</f>
+        <v>97.189314999999993</v>
+      </c>
+      <c r="J51" s="13">
+        <f>+'Variables PB'!J51</f>
+        <v>109.438</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="13">
+        <f>+'Variables PB'!F52</f>
+        <v>7.5545</v>
+      </c>
+      <c r="G52" s="13">
+        <f>+'Variables PB'!G52</f>
+        <v>11.955811000000001</v>
+      </c>
+      <c r="H52" s="13">
+        <f>+'Variables PB'!H52</f>
+        <v>8.8832170000000001</v>
+      </c>
+      <c r="I52" s="13">
+        <f>+'Variables PB'!I52</f>
+        <v>5.4583110000000001</v>
+      </c>
+      <c r="J52" s="13">
+        <f>+'Variables PB'!J52</f>
+        <v>8.8417940000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="13">
+        <f>+'Variables PB'!F53</f>
+        <v>2289.558094</v>
+      </c>
+      <c r="G53" s="13">
+        <f>+'Variables PB'!G53</f>
+        <v>3257.352061</v>
+      </c>
+      <c r="H53" s="13">
+        <f>+'Variables PB'!H53</f>
+        <v>3176.3519240000001</v>
+      </c>
+      <c r="I53" s="13">
+        <f>+'Variables PB'!I53</f>
+        <v>3220.0418920000002</v>
+      </c>
+      <c r="J53" s="13">
+        <f>+'Variables PB'!J53</f>
+        <v>2685.2770449999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="13">
+        <f>1/'Variables PB'!F54*100</f>
+        <v>23.852025847963368</v>
+      </c>
+      <c r="G54" s="13">
+        <f>1/'Variables PB'!G54*100</f>
+        <v>25.240408581637958</v>
+      </c>
+      <c r="H54" s="13">
+        <f>1/'Variables PB'!H54*100</f>
+        <v>25.35544531007935</v>
+      </c>
+      <c r="I54" s="13">
+        <f>1/'Variables PB'!I54*100</f>
+        <v>24.146703781760156</v>
+      </c>
+      <c r="J54" s="13">
+        <f>1/'Variables PB'!J54*100</f>
+        <v>24.449148460608267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="13">
+        <f>100-'Variables PB'!F55</f>
+        <v>40.247815850000002</v>
+      </c>
+      <c r="G55" s="13">
+        <f>100-'Variables PB'!G55</f>
+        <v>45.897001029999998</v>
+      </c>
+      <c r="H55" s="13">
+        <f>100-'Variables PB'!H55</f>
+        <v>46.84821367</v>
+      </c>
+      <c r="I55" s="13">
+        <f>100-'Variables PB'!I55</f>
+        <v>46.94</v>
+      </c>
+      <c r="J55" s="13">
+        <f>100-'Variables PB'!J55</f>
+        <v>53.44903171</v>
       </c>
     </row>
   </sheetData>
@@ -3842,10 +4475,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B295913-600B-4DAF-BD89-D508133A9829}">
-  <dimension ref="A1:I56"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3872,7 +4506,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3895,7 +4529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3927,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3959,7 +4593,7 @@
         <v>3.0303030303030303E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3976,7 +4610,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" ref="G5:G9" si="1">+D5</f>
@@ -3988,10 +4622,10 @@
       </c>
       <c r="I5" s="6">
         <f t="shared" ref="I5:I9" si="3">+F5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -4023,7 +4657,7 @@
         <v>0.12195121951219513</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -4055,7 +4689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -4087,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -4119,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -4162,28 +4796,28 @@
         <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="E11" s="7">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="G11" s="6">
         <f>100-D11</f>
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H11" s="6">
         <f>100-E11</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I11" s="6">
         <f>100-F11</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -4215,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -4247,7 +4881,7 @@
         <v>3.0303030303030303E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -4264,7 +4898,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="7">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" ref="G14" si="6">+D14</f>
@@ -4276,10 +4910,10 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" ref="I14" si="8">+F14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -4311,7 +4945,7 @@
         <v>0.12195121951219513</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -4343,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -4375,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -4407,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -4450,28 +5084,28 @@
         <v>27</v>
       </c>
       <c r="D20" s="7">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="E20" s="7">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F20" s="7">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="G20" s="6">
         <f>100-D20</f>
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H20" s="6">
         <f>100-E20</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I20" s="6">
         <f>100-F20</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -4503,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -4535,7 +5169,7 @@
         <v>3.0303030303030303E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
@@ -4552,7 +5186,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="7">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" ref="G23" si="14">+D23</f>
@@ -4564,10 +5198,10 @@
       </c>
       <c r="I23" s="6">
         <f t="shared" ref="I23" si="16">+F23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -4599,7 +5233,7 @@
         <v>0.12195121951219513</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -4631,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -4663,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -4695,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -4738,28 +5372,28 @@
         <v>27</v>
       </c>
       <c r="D29" s="7">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="E29" s="7">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F29" s="7">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="G29" s="6">
         <f>100-D29</f>
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H29" s="6">
         <f>100-E29</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I29" s="6">
         <f>100-F29</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -4791,7 +5425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -4823,7 +5457,7 @@
         <v>3.0303030303030303E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
@@ -4840,7 +5474,7 @@
         <v>25</v>
       </c>
       <c r="F32" s="7">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" ref="G32" si="22">+D32</f>
@@ -4852,10 +5486,10 @@
       </c>
       <c r="I32" s="6">
         <f t="shared" ref="I32" si="24">+F32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -4887,7 +5521,7 @@
         <v>0.12195121951219513</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -4919,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>9</v>
       </c>
@@ -4951,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
@@ -4983,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
@@ -5026,28 +5660,28 @@
         <v>27</v>
       </c>
       <c r="D38" s="7">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="E38" s="7">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F38" s="7">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="G38" s="6">
         <f>100-D38</f>
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H38" s="6">
         <f>100-E38</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I38" s="6">
         <f>100-F38</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
@@ -5079,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -5111,7 +5745,7 @@
         <v>3.0303030303030303E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
@@ -5128,7 +5762,7 @@
         <v>25</v>
       </c>
       <c r="F41" s="7">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" ref="G41" si="30">+D41</f>
@@ -5140,10 +5774,10 @@
       </c>
       <c r="I41" s="6">
         <f t="shared" ref="I41" si="32">+F41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
@@ -5175,7 +5809,7 @@
         <v>0.12195121951219513</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
@@ -5207,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>9</v>
       </c>
@@ -5239,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -5271,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -5314,28 +5948,28 @@
         <v>27</v>
       </c>
       <c r="D47" s="7">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="E47" s="7">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F47" s="7">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="G47" s="6">
         <f>100-D47</f>
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H47" s="6">
         <f>100-E47</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I47" s="6">
         <f>100-F47</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
@@ -5367,7 +6001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -5399,7 +6033,7 @@
         <v>3.0303030303030303E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>4</v>
       </c>
@@ -5416,7 +6050,7 @@
         <v>25</v>
       </c>
       <c r="F50" s="7">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" ref="G50" si="38">+D50</f>
@@ -5428,10 +6062,10 @@
       </c>
       <c r="I50" s="6">
         <f t="shared" ref="I50" si="40">+F50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -5463,7 +6097,7 @@
         <v>0.12195121951219513</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
@@ -5495,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
@@ -5527,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
@@ -5559,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>11</v>
       </c>
@@ -5602,39 +6236,335 @@
         <v>27</v>
       </c>
       <c r="D56" s="7">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="E56" s="7">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F56" s="7">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="G56" s="6">
         <f>100-D56</f>
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H56" s="6">
         <f>100-E56</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I56" s="6">
         <f>100-F56</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E57" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0</v>
+      </c>
+      <c r="G57" s="7">
+        <f>+D57</f>
+        <v>1.5</v>
+      </c>
+      <c r="H57" s="7">
+        <f>+E57</f>
+        <v>2.6</v>
+      </c>
+      <c r="I57" s="7">
+        <f>+F57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="7">
+        <v>275.5</v>
+      </c>
+      <c r="E58" s="7">
+        <v>261</v>
+      </c>
+      <c r="F58" s="7">
+        <v>330</v>
+      </c>
+      <c r="G58" s="6">
+        <f>1/D58</f>
+        <v>3.629764065335753E-3</v>
+      </c>
+      <c r="H58" s="6">
+        <f t="shared" ref="H58" si="44">1/E58</f>
+        <v>3.8314176245210726E-3</v>
+      </c>
+      <c r="I58" s="6">
+        <f t="shared" ref="I58" si="45">1/F58</f>
+        <v>3.0303030303030303E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="7">
         <v>10</v>
       </c>
+      <c r="E59" s="7">
+        <v>25</v>
+      </c>
+      <c r="F59" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" ref="G59" si="46">+D59</f>
+        <v>10</v>
+      </c>
+      <c r="H59" s="6">
+        <f t="shared" ref="H59" si="47">+E59</f>
+        <v>25</v>
+      </c>
+      <c r="I59" s="6">
+        <f t="shared" ref="I59" si="48">+F59</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="7">
+        <v>8.02</v>
+      </c>
+      <c r="E60" s="7">
+        <v>7.94</v>
+      </c>
+      <c r="F60" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G60" s="6">
+        <f>1/D60</f>
+        <v>0.12468827930174564</v>
+      </c>
+      <c r="H60" s="6">
+        <f>1/E60</f>
+        <v>0.12594458438287154</v>
+      </c>
+      <c r="I60" s="6">
+        <f>1/F60</f>
+        <v>0.12195121951219513</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="7">
+        <v>62</v>
+      </c>
+      <c r="E61" s="7">
+        <v>82</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6">
+        <f t="shared" ref="G61:G63" si="49">+D61</f>
+        <v>62</v>
+      </c>
+      <c r="H61" s="6">
+        <f t="shared" ref="H61:H63" si="50">+E61</f>
+        <v>82</v>
+      </c>
+      <c r="I61" s="6">
+        <f t="shared" ref="I61:I63" si="51">+F61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="E62" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0</v>
+      </c>
+      <c r="G62" s="6">
+        <f t="shared" si="49"/>
+        <v>6.2</v>
+      </c>
+      <c r="H62" s="6">
+        <f t="shared" si="50"/>
+        <v>11.2</v>
+      </c>
+      <c r="I62" s="6">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="7">
+        <v>4000</v>
+      </c>
+      <c r="E63" s="7">
+        <v>6000</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
+      <c r="G63" s="6">
+        <f t="shared" si="49"/>
+        <v>4000</v>
+      </c>
+      <c r="H63" s="6">
+        <f t="shared" si="50"/>
+        <v>6000</v>
+      </c>
+      <c r="I63" s="6">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="7">
+        <v>4.7951206449999999</v>
+      </c>
+      <c r="E64" s="7">
+        <v>3.452486865</v>
+      </c>
+      <c r="F64" s="7">
+        <v>6.3934941939999996</v>
+      </c>
+      <c r="G64" s="6">
+        <f>1/D64*100</f>
+        <v>20.854532639188687</v>
+      </c>
+      <c r="H64" s="6">
+        <f>1/E64*100</f>
+        <v>28.964628660506143</v>
+      </c>
+      <c r="I64" s="6">
+        <f>1/F64*100</f>
+        <v>15.640899477760598</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="7">
+        <v>90</v>
+      </c>
+      <c r="E65" s="7">
+        <v>60</v>
+      </c>
+      <c r="F65" s="7">
+        <v>5</v>
+      </c>
+      <c r="G65" s="6">
+        <f>100-D65</f>
+        <v>10</v>
+      </c>
+      <c r="H65" s="6">
+        <f>100-E65</f>
+        <v>40</v>
+      </c>
+      <c r="I65" s="6">
+        <f>100-F65</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H73" s="18"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I65" xr:uid="{2B295913-600B-4DAF-BD89-D508133A9829}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="MSA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A884DA1-BFCE-45C7-995C-FC06E5AACD4A}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5739,24 +6669,21 @@
       </c>
       <c r="D4" s="11">
         <f>+IF((ValforCalc!F4-PB_limits!$G5)/(PB_limits!$H5-PB_limits!$G5)+1&gt;1,(ValforCalc!F4-PB_limits!$G5)/(PB_limits!$H5-PB_limits!$G5)+1,(ValforCalc!F4-PB_limits!$I5)/(PB_limits!$G5-PB_limits!$I5))</f>
-        <v>1.9409133333333335</v>
+        <v>1.8</v>
       </c>
       <c r="E4" s="11">
         <f>+IF((ValforCalc!G4-PB_limits!$G5)/(PB_limits!$H5-PB_limits!$G5)+1&gt;1,(ValforCalc!G4-PB_limits!$G5)/(PB_limits!$H5-PB_limits!$G5)+1,(ValforCalc!G4-PB_limits!$I5)/(PB_limits!$G5-PB_limits!$I5))</f>
-        <v>1.9649666666666668</v>
+        <v>1.8333333333333335</v>
       </c>
       <c r="F4" s="11">
         <f>+IF((ValforCalc!H4-PB_limits!$G5)/(PB_limits!$H5-PB_limits!$G5)+1&gt;1,(ValforCalc!H4-PB_limits!$G5)/(PB_limits!$H5-PB_limits!$G5)+1,(ValforCalc!H4-PB_limits!$I5)/(PB_limits!$G5-PB_limits!$I5))</f>
-        <v>1.9745333333333333</v>
+        <v>1.6466666666666665</v>
       </c>
       <c r="G4" s="11">
         <f>+IF((ValforCalc!I4-PB_limits!$G5)/(PB_limits!$H5-PB_limits!$G5)+1&gt;1,(ValforCalc!I4-PB_limits!$G5)/(PB_limits!$H5-PB_limits!$G5)+1,(ValforCalc!I4-PB_limits!$I5)/(PB_limits!$G5-PB_limits!$I5))</f>
-        <v>1.8458733333333333</v>
-      </c>
-      <c r="H4" s="11">
-        <f>+IF((ValforCalc!J4-PB_limits!$G5)/(PB_limits!$H5-PB_limits!$G5)+1&gt;1,(ValforCalc!J4-PB_limits!$G5)/(PB_limits!$H5-PB_limits!$G5)+1,(ValforCalc!J4-PB_limits!$I5)/(PB_limits!$G5-PB_limits!$I5))</f>
-        <v>1.4693466666666666</v>
-      </c>
+        <v>1.4066666666666667</v>
+      </c>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
@@ -5937,23 +6864,23 @@
       </c>
       <c r="D10" s="11">
         <f>+IF((ValforCalc!F10-PB_limits!$G11)/(PB_limits!$H11-PB_limits!$G11)+1&gt;1,(ValforCalc!F10-PB_limits!$G11)/(PB_limits!$H11-PB_limits!$G11)+1,(ValforCalc!F10-PB_limits!$I11)/(PB_limits!$G11-PB_limits!$I11))</f>
-        <v>0.85220399999999985</v>
+        <v>2.0082577466666667</v>
       </c>
       <c r="E10" s="11">
         <f>+IF((ValforCalc!G10-PB_limits!$G11)/(PB_limits!$H11-PB_limits!$G11)+1&gt;1,(ValforCalc!G10-PB_limits!$G11)/(PB_limits!$H11-PB_limits!$G11)+1,(ValforCalc!G10-PB_limits!$I11)/(PB_limits!$G11-PB_limits!$I11))</f>
-        <v>1.11513</v>
+        <v>2.1962782143333333</v>
       </c>
       <c r="F10" s="11">
         <f>+IF((ValforCalc!H10-PB_limits!$G11)/(PB_limits!$H11-PB_limits!$G11)+1&gt;1,(ValforCalc!H10-PB_limits!$G11)/(PB_limits!$H11-PB_limits!$G11)+1,(ValforCalc!H10-PB_limits!$I11)/(PB_limits!$G11-PB_limits!$I11))</f>
-        <v>1.2438600000000002</v>
+        <v>2.2477470239999997</v>
       </c>
       <c r="G10" s="11">
         <f>+IF((ValforCalc!I10-PB_limits!$G11)/(PB_limits!$H11-PB_limits!$G11)+1&gt;1,(ValforCalc!I10-PB_limits!$G11)/(PB_limits!$H11-PB_limits!$G11)+1,(ValforCalc!I10-PB_limits!$I11)/(PB_limits!$G11-PB_limits!$I11))</f>
-        <v>1.2958199999999997</v>
+        <v>2.2706063986666667</v>
       </c>
       <c r="H10" s="11">
         <f>+IF((ValforCalc!J10-PB_limits!$G11)/(PB_limits!$H11-PB_limits!$G11)+1&gt;1,(ValforCalc!J10-PB_limits!$G11)/(PB_limits!$H11-PB_limits!$G11)+1,(ValforCalc!J10-PB_limits!$I11)/(PB_limits!$G11-PB_limits!$I11))</f>
-        <v>1.49621</v>
+        <v>2.3470358449999997</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -6032,24 +6959,21 @@
       </c>
       <c r="D13" s="11">
         <f>+IF((ValforCalc!F13-PB_limits!$G14)/(PB_limits!$H14-PB_limits!$G14)+1&gt;1,(ValforCalc!F13-PB_limits!$G14)/(PB_limits!$H14-PB_limits!$G14)+1,(ValforCalc!F13-PB_limits!$I14)/(PB_limits!$G14-PB_limits!$I14))</f>
-        <v>1.9409111999999999</v>
+        <v>1.8</v>
       </c>
       <c r="E13" s="11">
         <f>+IF((ValforCalc!G13-PB_limits!$G14)/(PB_limits!$H14-PB_limits!$G14)+1&gt;1,(ValforCalc!G13-PB_limits!$G14)/(PB_limits!$H14-PB_limits!$G14)+1,(ValforCalc!G13-PB_limits!$I14)/(PB_limits!$G14-PB_limits!$I14))</f>
-        <v>1.9644458</v>
+        <v>1.8333333333333335</v>
       </c>
       <c r="F13" s="11">
         <f>+IF((ValforCalc!H13-PB_limits!$G14)/(PB_limits!$H14-PB_limits!$G14)+1&gt;1,(ValforCalc!H13-PB_limits!$G14)/(PB_limits!$H14-PB_limits!$G14)+1,(ValforCalc!H13-PB_limits!$I14)/(PB_limits!$G14-PB_limits!$I14))</f>
-        <v>2.1374075333333336</v>
+        <v>1.7666666666666666</v>
       </c>
       <c r="G13" s="11">
         <f>+IF((ValforCalc!I13-PB_limits!$G14)/(PB_limits!$H14-PB_limits!$G14)+1&gt;1,(ValforCalc!I13-PB_limits!$G14)/(PB_limits!$H14-PB_limits!$G14)+1,(ValforCalc!I13-PB_limits!$I14)/(PB_limits!$G14-PB_limits!$I14))</f>
-        <v>2.119599</v>
-      </c>
-      <c r="H13" s="11">
-        <f>+IF((ValforCalc!J13-PB_limits!$G14)/(PB_limits!$H14-PB_limits!$G14)+1&gt;1,(ValforCalc!J13-PB_limits!$G14)/(PB_limits!$H14-PB_limits!$G14)+1,(ValforCalc!J13-PB_limits!$I14)/(PB_limits!$G14-PB_limits!$I14))</f>
-        <v>1.6608826666666665</v>
-      </c>
+        <v>1.6933333333333334</v>
+      </c>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
@@ -6218,23 +7142,23 @@
       </c>
       <c r="D19" s="11">
         <f>+IF((ValforCalc!F19-PB_limits!$G20)/(PB_limits!$H20-PB_limits!$G20)+1&gt;1,(ValforCalc!F19-PB_limits!$G20)/(PB_limits!$H20-PB_limits!$G20)+1,(ValforCalc!F19-PB_limits!$I20)/(PB_limits!$G20-PB_limits!$I20))</f>
-        <v>0.85222148000000009</v>
+        <v>2.0082605283333335</v>
       </c>
       <c r="E19" s="11">
         <f>+IF((ValforCalc!G19-PB_limits!$G20)/(PB_limits!$H20-PB_limits!$G20)+1&gt;1,(ValforCalc!G19-PB_limits!$G20)/(PB_limits!$H20-PB_limits!$G20)+1,(ValforCalc!G19-PB_limits!$I20)/(PB_limits!$G20-PB_limits!$I20))</f>
-        <v>1.1156368000000001</v>
+        <v>2.1962829826666663</v>
       </c>
       <c r="F19" s="11">
         <f>+IF((ValforCalc!H19-PB_limits!$G20)/(PB_limits!$H20-PB_limits!$G20)+1&gt;1,(ValforCalc!H19-PB_limits!$G20)/(PB_limits!$H20-PB_limits!$G20)+1,(ValforCalc!H19-PB_limits!$I20)/(PB_limits!$G20-PB_limits!$I20))</f>
-        <v>1.3117918000000004</v>
+        <v>2.2745506366666666</v>
       </c>
       <c r="G19" s="11">
         <f>+IF((ValforCalc!I19-PB_limits!$G20)/(PB_limits!$H20-PB_limits!$G20)+1&gt;1,(ValforCalc!I19-PB_limits!$G20)/(PB_limits!$H20-PB_limits!$G20)+1,(ValforCalc!I19-PB_limits!$I20)/(PB_limits!$G20-PB_limits!$I20))</f>
-        <v>1.6042639000000001</v>
+        <v>2.3934063713333336</v>
       </c>
       <c r="H19" s="11">
         <f>+IF((ValforCalc!J19-PB_limits!$G20)/(PB_limits!$H20-PB_limits!$G20)+1&gt;1,(ValforCalc!J19-PB_limits!$G20)/(PB_limits!$H20-PB_limits!$G20)+1,(ValforCalc!J19-PB_limits!$I20)/(PB_limits!$G20-PB_limits!$I20))</f>
-        <v>2.2825015</v>
+        <v>2.6496800183333331</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -6311,24 +7235,21 @@
       </c>
       <c r="D22" s="11">
         <f>+IF((ValforCalc!F22-PB_limits!$G23)/(PB_limits!$H23-PB_limits!$G23)+1&gt;1,(ValforCalc!F22-PB_limits!$G23)/(PB_limits!$H23-PB_limits!$G23)+1,(ValforCalc!F22-PB_limits!$I23)/(PB_limits!$G23-PB_limits!$I23))</f>
-        <v>1.9409151999999998</v>
+        <v>1.8</v>
       </c>
       <c r="E22" s="11">
         <f>+IF((ValforCalc!G22-PB_limits!$G23)/(PB_limits!$H23-PB_limits!$G23)+1&gt;1,(ValforCalc!G22-PB_limits!$G23)/(PB_limits!$H23-PB_limits!$G23)+1,(ValforCalc!G22-PB_limits!$I23)/(PB_limits!$G23-PB_limits!$I23))</f>
-        <v>1.9645663333333334</v>
+        <v>1.8333333333333335</v>
       </c>
       <c r="F22" s="11">
         <f>+IF((ValforCalc!H22-PB_limits!$G23)/(PB_limits!$H23-PB_limits!$G23)+1&gt;1,(ValforCalc!H22-PB_limits!$G23)/(PB_limits!$H23-PB_limits!$G23)+1,(ValforCalc!H22-PB_limits!$I23)/(PB_limits!$G23-PB_limits!$I23))</f>
-        <v>2.2062531999999999</v>
+        <v>1.8466666666666667</v>
       </c>
       <c r="G22" s="11">
         <f>+IF((ValforCalc!I22-PB_limits!$G23)/(PB_limits!$H23-PB_limits!$G23)+1&gt;1,(ValforCalc!I22-PB_limits!$G23)/(PB_limits!$H23-PB_limits!$G23)+1,(ValforCalc!I22-PB_limits!$I23)/(PB_limits!$G23-PB_limits!$I23))</f>
-        <v>2.2911478666666669</v>
-      </c>
-      <c r="H22" s="11">
-        <f>+IF((ValforCalc!J22-PB_limits!$G23)/(PB_limits!$H23-PB_limits!$G23)+1&gt;1,(ValforCalc!J22-PB_limits!$G23)/(PB_limits!$H23-PB_limits!$G23)+1,(ValforCalc!J22-PB_limits!$I23)/(PB_limits!$G23-PB_limits!$I23))</f>
-        <v>1.9075135333333333</v>
-      </c>
+        <v>1.8133333333333332</v>
+      </c>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
@@ -6497,23 +7418,23 @@
       </c>
       <c r="D28" s="11">
         <f>+IF((ValforCalc!F28-PB_limits!$G29)/(PB_limits!$H29-PB_limits!$G29)+1&gt;1,(ValforCalc!F28-PB_limits!$G29)/(PB_limits!$H29-PB_limits!$G29)+1,(ValforCalc!F28-PB_limits!$I29)/(PB_limits!$G29-PB_limits!$I29))</f>
-        <v>0.85220408000000025</v>
+        <v>2.0082577466666667</v>
       </c>
       <c r="E28" s="11">
         <f>+IF((ValforCalc!G28-PB_limits!$G29)/(PB_limits!$H29-PB_limits!$G29)+1&gt;1,(ValforCalc!G28-PB_limits!$G29)/(PB_limits!$H29-PB_limits!$G29)+1,(ValforCalc!G28-PB_limits!$I29)/(PB_limits!$G29-PB_limits!$I29))</f>
-        <v>1.1170116000000001</v>
+        <v>2.1963654359999998</v>
       </c>
       <c r="F28" s="11">
         <f>+IF((ValforCalc!H28-PB_limits!$G29)/(PB_limits!$H29-PB_limits!$G29)+1&gt;1,(ValforCalc!H28-PB_limits!$G29)/(PB_limits!$H29-PB_limits!$G29)+1,(ValforCalc!H28-PB_limits!$I29)/(PB_limits!$G29-PB_limits!$I29))</f>
-        <v>1.3429671999999997</v>
+        <v>2.2860507566666666</v>
       </c>
       <c r="G28" s="11">
         <f>+IF((ValforCalc!I28-PB_limits!$G29)/(PB_limits!$H29-PB_limits!$G29)+1&gt;1,(ValforCalc!I28-PB_limits!$G29)/(PB_limits!$H29-PB_limits!$G29)+1,(ValforCalc!I28-PB_limits!$I29)/(PB_limits!$G29-PB_limits!$I29))</f>
-        <v>1.7387327999999997</v>
+        <v>2.4433372816666665</v>
       </c>
       <c r="H28" s="11">
         <f>+IF((ValforCalc!J28-PB_limits!$G29)/(PB_limits!$H29-PB_limits!$G29)+1&gt;1,(ValforCalc!J28-PB_limits!$G29)/(PB_limits!$H29-PB_limits!$G29)+1,(ValforCalc!J28-PB_limits!$I29)/(PB_limits!$G29-PB_limits!$I29))</f>
-        <v>2.5744720999999999</v>
+        <v>2.7582107383333332</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -6590,24 +7511,21 @@
       </c>
       <c r="D31" s="11">
         <f>+IF((ValforCalc!F31-PB_limits!$G32)/(PB_limits!$H32-PB_limits!$G32)+1&gt;1,(ValforCalc!F31-PB_limits!$G32)/(PB_limits!$H32-PB_limits!$G32)+1,(ValforCalc!F31-PB_limits!$I32)/(PB_limits!$G32-PB_limits!$I32))</f>
-        <v>1.9411253333333334</v>
+        <v>1.8</v>
       </c>
       <c r="E31" s="11">
         <f>+IF((ValforCalc!G31-PB_limits!$G32)/(PB_limits!$H32-PB_limits!$G32)+1&gt;1,(ValforCalc!G31-PB_limits!$G32)/(PB_limits!$H32-PB_limits!$G32)+1,(ValforCalc!G31-PB_limits!$I32)/(PB_limits!$G32-PB_limits!$I32))</f>
-        <v>1.9658637333333333</v>
+        <v>1.8333333333333335</v>
       </c>
       <c r="F31" s="11">
         <f>+IF((ValforCalc!H31-PB_limits!$G32)/(PB_limits!$H32-PB_limits!$G32)+1&gt;1,(ValforCalc!H31-PB_limits!$G32)/(PB_limits!$H32-PB_limits!$G32)+1,(ValforCalc!H31-PB_limits!$I32)/(PB_limits!$G32-PB_limits!$I32))</f>
-        <v>1.9578166666666665</v>
+        <v>1.4266666666666665</v>
       </c>
       <c r="G31" s="11">
         <f>+IF((ValforCalc!I31-PB_limits!$G32)/(PB_limits!$H32-PB_limits!$G32)+1&gt;1,(ValforCalc!I31-PB_limits!$G32)/(PB_limits!$H32-PB_limits!$G32)+1,(ValforCalc!I31-PB_limits!$I32)/(PB_limits!$G32-PB_limits!$I32))</f>
-        <v>1.8240540000000001</v>
-      </c>
-      <c r="H31" s="11">
-        <f>+IF((ValforCalc!J31-PB_limits!$G32)/(PB_limits!$H32-PB_limits!$G32)+1&gt;1,(ValforCalc!J31-PB_limits!$G32)/(PB_limits!$H32-PB_limits!$G32)+1,(ValforCalc!J31-PB_limits!$I32)/(PB_limits!$G32-PB_limits!$I32))</f>
-        <v>1.5245520666666668</v>
-      </c>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
@@ -6776,23 +7694,23 @@
       </c>
       <c r="D37" s="11">
         <f>+IF((ValforCalc!F37-PB_limits!$G38)/(PB_limits!$H38-PB_limits!$G38)+1&gt;1,(ValforCalc!F37-PB_limits!$G38)/(PB_limits!$H38-PB_limits!$G38)+1,(ValforCalc!F37-PB_limits!$I38)/(PB_limits!$G38-PB_limits!$I38))</f>
-        <v>0.85222148000000009</v>
+        <v>2.0082605283333335</v>
       </c>
       <c r="E37" s="11">
         <f>+IF((ValforCalc!G37-PB_limits!$G38)/(PB_limits!$H38-PB_limits!$G38)+1&gt;1,(ValforCalc!G37-PB_limits!$G38)/(PB_limits!$H38-PB_limits!$G38)+1,(ValforCalc!G37-PB_limits!$I38)/(PB_limits!$G38-PB_limits!$I38))</f>
-        <v>1.1156368000000001</v>
+        <v>2.1962829826666663</v>
       </c>
       <c r="F37" s="11">
         <f>+IF((ValforCalc!H37-PB_limits!$G38)/(PB_limits!$H38-PB_limits!$G38)+1&gt;1,(ValforCalc!H37-PB_limits!$G38)/(PB_limits!$H38-PB_limits!$G38)+1,(ValforCalc!H37-PB_limits!$I38)/(PB_limits!$G38-PB_limits!$I38))</f>
-        <v>1.2731239000000003</v>
+        <v>2.2573000589999999</v>
       </c>
       <c r="G37" s="11">
         <f>+IF((ValforCalc!I37-PB_limits!$G38)/(PB_limits!$H38-PB_limits!$G38)+1&gt;1,(ValforCalc!I37-PB_limits!$G38)/(PB_limits!$H38-PB_limits!$G38)+1,(ValforCalc!I37-PB_limits!$I38)/(PB_limits!$G38-PB_limits!$I38))</f>
-        <v>1.3267538000000001</v>
+        <v>2.2767202456666666</v>
       </c>
       <c r="H37" s="11">
         <f>+IF((ValforCalc!J37-PB_limits!$G38)/(PB_limits!$H38-PB_limits!$G38)+1&gt;1,(ValforCalc!J37-PB_limits!$G38)/(PB_limits!$H38-PB_limits!$G38)+1,(ValforCalc!J37-PB_limits!$I38)/(PB_limits!$G38-PB_limits!$I38))</f>
-        <v>1.2367671999999998</v>
+        <v>2.2304058473333335</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -6869,24 +7787,21 @@
       </c>
       <c r="D40" s="11">
         <f>+IF((ValforCalc!F40-PB_limits!$G41)/(PB_limits!$H41-PB_limits!$G41)+1&gt;1,(ValforCalc!F40-PB_limits!$G41)/(PB_limits!$H41-PB_limits!$G41)+1,(ValforCalc!F40-PB_limits!$I41)/(PB_limits!$G41-PB_limits!$I41))</f>
-        <v>1.938504</v>
+        <v>1.8</v>
       </c>
       <c r="E40" s="11">
         <f>+IF((ValforCalc!G40-PB_limits!$G41)/(PB_limits!$H41-PB_limits!$G41)+1&gt;1,(ValforCalc!G40-PB_limits!$G41)/(PB_limits!$H41-PB_limits!$G41)+1,(ValforCalc!G40-PB_limits!$I41)/(PB_limits!$G41-PB_limits!$I41))</f>
-        <v>1.9629466</v>
+        <v>1.8333333333333335</v>
       </c>
       <c r="F40" s="11">
         <f>+IF((ValforCalc!H40-PB_limits!$G41)/(PB_limits!$H41-PB_limits!$G41)+1&gt;1,(ValforCalc!H40-PB_limits!$G41)/(PB_limits!$H41-PB_limits!$G41)+1,(ValforCalc!H40-PB_limits!$I41)/(PB_limits!$G41-PB_limits!$I41))</f>
-        <v>1.8862882666666665</v>
+        <v>1.42</v>
       </c>
       <c r="G40" s="11">
         <f>+IF((ValforCalc!I40-PB_limits!$G41)/(PB_limits!$H41-PB_limits!$G41)+1&gt;1,(ValforCalc!I40-PB_limits!$G41)/(PB_limits!$H41-PB_limits!$G41)+1,(ValforCalc!I40-PB_limits!$I41)/(PB_limits!$G41-PB_limits!$I41))</f>
-        <v>1.6751237333333333</v>
-      </c>
-      <c r="H40" s="11">
-        <f>+IF((ValforCalc!J40-PB_limits!$G41)/(PB_limits!$H41-PB_limits!$G41)+1&gt;1,(ValforCalc!J40-PB_limits!$G41)/(PB_limits!$H41-PB_limits!$G41)+1,(ValforCalc!J40-PB_limits!$I41)/(PB_limits!$G41-PB_limits!$I41))</f>
-        <v>1.3712582</v>
-      </c>
+        <v>1.02</v>
+      </c>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
@@ -7055,42 +7970,316 @@
       </c>
       <c r="D46" s="11">
         <f>+IF((ValforCalc!F46-PB_limits!$G47)/(PB_limits!$H47-PB_limits!$G47)+1&gt;1,(ValforCalc!F46-PB_limits!$G47)/(PB_limits!$H47-PB_limits!$G47)+1,(ValforCalc!F46-PB_limits!$I47)/(PB_limits!$G47-PB_limits!$I47))</f>
-        <v>0.85222063999999986</v>
+        <v>2.0082605283333335</v>
       </c>
       <c r="E46" s="11">
         <f>+IF((ValforCalc!G46-PB_limits!$G47)/(PB_limits!$H47-PB_limits!$G47)+1&gt;1,(ValforCalc!G46-PB_limits!$G47)/(PB_limits!$H47-PB_limits!$G47)+1,(ValforCalc!G46-PB_limits!$I47)/(PB_limits!$G47-PB_limits!$I47))</f>
-        <v>1.1163902000000001</v>
+        <v>2.1965667010000001</v>
       </c>
       <c r="F46" s="11">
         <f>+IF((ValforCalc!H46-PB_limits!$G47)/(PB_limits!$H47-PB_limits!$G47)+1&gt;1,(ValforCalc!H46-PB_limits!$G47)/(PB_limits!$H47-PB_limits!$G47)+1,(ValforCalc!H46-PB_limits!$I47)/(PB_limits!$G47-PB_limits!$I47))</f>
-        <v>1.2270795999999997</v>
+        <v>2.2377658286666664</v>
       </c>
       <c r="G46" s="11">
         <f>+IF((ValforCalc!I46-PB_limits!$G47)/(PB_limits!$H47-PB_limits!$G47)+1&gt;1,(ValforCalc!I46-PB_limits!$G47)/(PB_limits!$H47-PB_limits!$G47)+1,(ValforCalc!I46-PB_limits!$I47)/(PB_limits!$G47-PB_limits!$I47))</f>
-        <v>1.1430636000000001</v>
+        <v>2.1996666666666664</v>
       </c>
       <c r="H46" s="11">
         <f>+IF((ValforCalc!J46-PB_limits!$G47)/(PB_limits!$H47-PB_limits!$G47)+1&gt;1,(ValforCalc!J46-PB_limits!$G47)/(PB_limits!$H47-PB_limits!$G47)+1,(ValforCalc!J46-PB_limits!$I47)/(PB_limits!$G47-PB_limits!$I47))</f>
-        <v>1.1841476</v>
+        <v>2.2046165069999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="11">
+        <f>+IF((ValforCalc!F47-PB_limits!$G48)/(PB_limits!$H48-PB_limits!$G48)+1&gt;1,(ValforCalc!F47-PB_limits!$G48)/(PB_limits!$H48-PB_limits!$G48)+1,(ValforCalc!F47-PB_limits!$I48)/(PB_limits!$G48-PB_limits!$I48))</f>
+        <v>0.51401933333333327</v>
+      </c>
+      <c r="E47" s="11">
+        <f>+IF((ValforCalc!G47-PB_limits!$G48)/(PB_limits!$H48-PB_limits!$G48)+1&gt;1,(ValforCalc!G47-PB_limits!$G48)/(PB_limits!$H48-PB_limits!$G48)+1,(ValforCalc!G47-PB_limits!$I48)/(PB_limits!$G48-PB_limits!$I48))</f>
+        <v>1.8252172727272726</v>
+      </c>
+      <c r="F47" s="11">
+        <f>+IF((ValforCalc!H47-PB_limits!$G48)/(PB_limits!$H48-PB_limits!$G48)+1&gt;1,(ValforCalc!H47-PB_limits!$G48)/(PB_limits!$H48-PB_limits!$G48)+1,(ValforCalc!H47-PB_limits!$I48)/(PB_limits!$G48-PB_limits!$I48))</f>
+        <v>2.4649663636363637</v>
+      </c>
+      <c r="G47" s="11">
+        <f>+IF((ValforCalc!I47-PB_limits!$G48)/(PB_limits!$H48-PB_limits!$G48)+1&gt;1,(ValforCalc!I47-PB_limits!$G48)/(PB_limits!$H48-PB_limits!$G48)+1,(ValforCalc!I47-PB_limits!$I48)/(PB_limits!$G48-PB_limits!$I48))</f>
+        <v>2.9492154545454543</v>
+      </c>
+      <c r="H47" s="11">
+        <f>+IF((ValforCalc!J47-PB_limits!$G48)/(PB_limits!$H48-PB_limits!$G48)+1&gt;1,(ValforCalc!J47-PB_limits!$G48)/(PB_limits!$H48-PB_limits!$G48)+1,(ValforCalc!J47-PB_limits!$I48)/(PB_limits!$G48-PB_limits!$I48))</f>
+        <v>4.7726627272727278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="11">
+        <f>+IF((ValforCalc!F48-PB_limits!$G49)/(PB_limits!$H49-PB_limits!$G49)+1&gt;1,(ValforCalc!F48-PB_limits!$G49)/(PB_limits!$H49-PB_limits!$G49)+1,(ValforCalc!F48-PB_limits!$I49)/(PB_limits!$G49-PB_limits!$I49))</f>
+        <v>0.15797018348623887</v>
+      </c>
+      <c r="E48" s="11">
+        <f>+IF((ValforCalc!G48-PB_limits!$G49)/(PB_limits!$H49-PB_limits!$G49)+1&gt;1,(ValforCalc!G48-PB_limits!$G49)/(PB_limits!$H49-PB_limits!$G49)+1,(ValforCalc!G48-PB_limits!$I49)/(PB_limits!$G49-PB_limits!$I49))</f>
+        <v>0.9026867627785059</v>
+      </c>
+      <c r="F48" s="11">
+        <f>+IF((ValforCalc!H48-PB_limits!$G49)/(PB_limits!$H49-PB_limits!$G49)+1&gt;1,(ValforCalc!H48-PB_limits!$G49)/(PB_limits!$H49-PB_limits!$G49)+1,(ValforCalc!H48-PB_limits!$I49)/(PB_limits!$G49-PB_limits!$I49))</f>
+        <v>0.59975120510029545</v>
+      </c>
+      <c r="G48" s="11">
+        <f>+IF((ValforCalc!I48-PB_limits!$G49)/(PB_limits!$H49-PB_limits!$G49)+1&gt;1,(ValforCalc!I48-PB_limits!$G49)/(PB_limits!$H49-PB_limits!$G49)+1,(ValforCalc!I48-PB_limits!$I49)/(PB_limits!$G49-PB_limits!$I49))</f>
+        <v>0.3261319917135248</v>
+      </c>
+      <c r="H48" s="11">
+        <f>+IF((ValforCalc!J48-PB_limits!$G49)/(PB_limits!$H49-PB_limits!$G49)+1&gt;1,(ValforCalc!J48-PB_limits!$G49)/(PB_limits!$H49-PB_limits!$G49)+1,(ValforCalc!J48-PB_limits!$I49)/(PB_limits!$G49-PB_limits!$I49))</f>
+        <v>0.15797018348623887</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="11">
+        <f>+IF((ValforCalc!F49-PB_limits!$G50)/(PB_limits!$H50-PB_limits!$G50)+1&gt;1,(ValforCalc!F49-PB_limits!$G50)/(PB_limits!$H50-PB_limits!$G50)+1,(ValforCalc!F49-PB_limits!$I50)/(PB_limits!$G50-PB_limits!$I50))</f>
+        <v>1.8</v>
+      </c>
+      <c r="E49" s="11">
+        <f>+IF((ValforCalc!G49-PB_limits!$G50)/(PB_limits!$H50-PB_limits!$G50)+1&gt;1,(ValforCalc!G49-PB_limits!$G50)/(PB_limits!$H50-PB_limits!$G50)+1,(ValforCalc!G49-PB_limits!$I50)/(PB_limits!$G50-PB_limits!$I50))</f>
+        <v>1.8333333333333335</v>
+      </c>
+      <c r="F49" s="11">
+        <f>+IF((ValforCalc!H49-PB_limits!$G50)/(PB_limits!$H50-PB_limits!$G50)+1&gt;1,(ValforCalc!H49-PB_limits!$G50)/(PB_limits!$H50-PB_limits!$G50)+1,(ValforCalc!H49-PB_limits!$I50)/(PB_limits!$G50-PB_limits!$I50))</f>
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="G49" s="11">
+        <f>+IF((ValforCalc!I49-PB_limits!$G50)/(PB_limits!$H50-PB_limits!$G50)+1&gt;1,(ValforCalc!I49-PB_limits!$G50)/(PB_limits!$H50-PB_limits!$G50)+1,(ValforCalc!I49-PB_limits!$I50)/(PB_limits!$G50-PB_limits!$I50))</f>
+        <v>1.4933333333333332</v>
+      </c>
+      <c r="H49" s="11"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="11">
+        <f>+IF((ValforCalc!F50-PB_limits!$G51)/(PB_limits!$H51-PB_limits!$G51)+1&gt;1,(ValforCalc!F50-PB_limits!$G51)/(PB_limits!$H51-PB_limits!$G51)+1,(ValforCalc!F50-PB_limits!$I51)/(PB_limits!$G51-PB_limits!$I51))</f>
+        <v>0.45535119136472968</v>
+      </c>
+      <c r="E50" s="11">
+        <f>+IF((ValforCalc!G50-PB_limits!$G51)/(PB_limits!$H51-PB_limits!$G51)+1&gt;1,(ValforCalc!G50-PB_limits!$G51)/(PB_limits!$H51-PB_limits!$G51)+1,(ValforCalc!G50-PB_limits!$I51)/(PB_limits!$G51-PB_limits!$I51))</f>
+        <v>0.81372572394372222</v>
+      </c>
+      <c r="F50" s="11">
+        <f>+IF((ValforCalc!H50-PB_limits!$G51)/(PB_limits!$H51-PB_limits!$G51)+1&gt;1,(ValforCalc!H50-PB_limits!$G51)/(PB_limits!$H51-PB_limits!$G51)+1,(ValforCalc!H50-PB_limits!$I51)/(PB_limits!$G51-PB_limits!$I51))</f>
+        <v>0.99714869606803802</v>
+      </c>
+      <c r="G50" s="11">
+        <f>+IF((ValforCalc!I50-PB_limits!$G51)/(PB_limits!$H51-PB_limits!$G51)+1&gt;1,(ValforCalc!I50-PB_limits!$G51)/(PB_limits!$H51-PB_limits!$G51)+1,(ValforCalc!I50-PB_limits!$I51)/(PB_limits!$G51-PB_limits!$I51))</f>
+        <v>1.5940847536714693</v>
+      </c>
+      <c r="H50" s="11">
+        <f>+IF((ValforCalc!J50-PB_limits!$G51)/(PB_limits!$H51-PB_limits!$G51)+1&gt;1,(ValforCalc!J50-PB_limits!$G51)/(PB_limits!$H51-PB_limits!$G51)+1,(ValforCalc!J50-PB_limits!$I51)/(PB_limits!$G51-PB_limits!$I51))</f>
+        <v>3.1350399988078053</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="11">
+        <f>+IF((ValforCalc!F51-PB_limits!$G52)/(PB_limits!$H52-PB_limits!$G52)+1&gt;2, ValforCalc!F51/PB_limits!$H52,IF((ValforCalc!F51-PB_limits!$G52)/(PB_limits!$H52-PB_limits!$G52)+1&gt;1,(ValforCalc!F51-PB_limits!$G52)/(PB_limits!$H52-PB_limits!$G52)+1,(ValforCalc!F51-PB_limits!$I52)/(PB_limits!$G52-PB_limits!$I52)))</f>
+        <v>1.3375155499999998</v>
+      </c>
+      <c r="E51" s="11">
+        <f>+IF((ValforCalc!G51-PB_limits!$G52)/(PB_limits!$H52-PB_limits!$G52)+1&gt;2, 1+ValforCalc!G51/PB_limits!$H52,IF((ValforCalc!G51-PB_limits!$G52)/(PB_limits!$H52-PB_limits!$G52)+1&gt;1,(ValforCalc!G51-PB_limits!$G52)/(PB_limits!$H52-PB_limits!$G52)+1,(ValforCalc!G51-PB_limits!$I52)/(PB_limits!$G52-PB_limits!$I52)))</f>
+        <v>2.6034756097560976</v>
+      </c>
+      <c r="F51" s="11">
+        <f>+IF((ValforCalc!H51-PB_limits!$G52)/(PB_limits!$H52-PB_limits!$G52)+1&gt;2, 1+ValforCalc!H51/PB_limits!$H52,IF((ValforCalc!H51-PB_limits!$G52)/(PB_limits!$H52-PB_limits!$G52)+1&gt;1,(ValforCalc!H51-PB_limits!$G52)/(PB_limits!$H52-PB_limits!$G52)+1,(ValforCalc!H51-PB_limits!$I52)/(PB_limits!$G52-PB_limits!$I52)))</f>
+        <v>2.4771707317073171</v>
+      </c>
+      <c r="G51" s="11">
+        <f>+IF((ValforCalc!I51-PB_limits!$G52)/(PB_limits!$H52-PB_limits!$G52)+1&gt;2, 1+ValforCalc!I51/PB_limits!$H52,IF((ValforCalc!I51-PB_limits!$G52)/(PB_limits!$H52-PB_limits!$G52)+1&gt;1,(ValforCalc!I51-PB_limits!$G52)/(PB_limits!$H52-PB_limits!$G52)+1,(ValforCalc!I51-PB_limits!$I52)/(PB_limits!$G52-PB_limits!$I52)))</f>
+        <v>2.1852355487804878</v>
+      </c>
+      <c r="H51" s="11">
+        <f>+IF((ValforCalc!J51-PB_limits!$G52)/(PB_limits!$H52-PB_limits!$G52)+1&gt;2, 1+ValforCalc!J51/PB_limits!$H52,IF((ValforCalc!J51-PB_limits!$G52)/(PB_limits!$H52-PB_limits!$G52)+1&gt;1,(ValforCalc!J51-PB_limits!$G52)/(PB_limits!$H52-PB_limits!$G52)+1,(ValforCalc!J51-PB_limits!$I52)/(PB_limits!$G52-PB_limits!$I52)))</f>
+        <v>2.3346097560975609</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="11">
+        <f>+IF((ValforCalc!F52-PB_limits!$G53)/(PB_limits!$H53-PB_limits!$G53)+1&gt;1,(ValforCalc!F52-PB_limits!$G53)/(PB_limits!$H53-PB_limits!$G53)+1,(ValforCalc!F52-PB_limits!$I53)/(PB_limits!$G53-PB_limits!$I53))</f>
+        <v>1.2709000000000001</v>
+      </c>
+      <c r="E52" s="11">
+        <f>+IF((ValforCalc!G52-PB_limits!$G53)/(PB_limits!$H53-PB_limits!$G53)+1&gt;2, 1+ValforCalc!G52/PB_limits!$H53,IF((ValforCalc!G52-PB_limits!$G53)/(PB_limits!$H53-PB_limits!$G53)+1&gt;1,(ValforCalc!G52-PB_limits!$G53)/(PB_limits!$H53-PB_limits!$G53)+1,(ValforCalc!G52-PB_limits!$I53)/(PB_limits!$G53-PB_limits!$I53)))</f>
+        <v>2.0674831249999999</v>
+      </c>
+      <c r="F52" s="11">
+        <f>+IF((ValforCalc!H52-PB_limits!$G53)/(PB_limits!$H53-PB_limits!$G53)+1&gt;2, 1+ValforCalc!H52/PB_limits!$H53,IF((ValforCalc!H52-PB_limits!$G53)/(PB_limits!$H53-PB_limits!$G53)+1&gt;1,(ValforCalc!H52-PB_limits!$G53)/(PB_limits!$H53-PB_limits!$G53)+1,(ValforCalc!H52-PB_limits!$I53)/(PB_limits!$G53-PB_limits!$I53)))</f>
+        <v>1.5366434</v>
+      </c>
+      <c r="G52" s="11">
+        <f>+IF((ValforCalc!I52-PB_limits!$G53)/(PB_limits!$H53-PB_limits!$G53)+1&gt;2, 1+ValforCalc!I52/PB_limits!$H53,IF((ValforCalc!I52-PB_limits!$G53)/(PB_limits!$H53-PB_limits!$G53)+1&gt;1,(ValforCalc!I52-PB_limits!$G53)/(PB_limits!$H53-PB_limits!$G53)+1,(ValforCalc!I52-PB_limits!$I53)/(PB_limits!$G53-PB_limits!$I53)))</f>
+        <v>0.88037274193548387</v>
+      </c>
+      <c r="H52" s="11">
+        <f>+IF((ValforCalc!J52-PB_limits!$G53)/(PB_limits!$H53-PB_limits!$G53)+1&gt;2, 1+ValforCalc!J52/PB_limits!$H53,IF((ValforCalc!J52-PB_limits!$G53)/(PB_limits!$H53-PB_limits!$G53)+1&gt;1,(ValforCalc!J52-PB_limits!$G53)/(PB_limits!$H53-PB_limits!$G53)+1,(ValforCalc!J52-PB_limits!$I53)/(PB_limits!$G53-PB_limits!$I53)))</f>
+        <v>1.5283588000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="11">
+        <f>+IF((ValforCalc!F53-PB_limits!$G54)/(PB_limits!$H54-PB_limits!$G54)+1&gt;1,(ValforCalc!F53-PB_limits!$G54)/(PB_limits!$H54-PB_limits!$G54)+1,(ValforCalc!F53-PB_limits!$I54)/(PB_limits!$G54-PB_limits!$I54))</f>
+        <v>0.57238952349999994</v>
+      </c>
+      <c r="E53" s="11">
+        <f>+IF((ValforCalc!G53-PB_limits!$G54)/(PB_limits!$H54-PB_limits!$G54)+1&gt;1,(ValforCalc!G53-PB_limits!$G54)/(PB_limits!$H54-PB_limits!$G54)+1,(ValforCalc!G53-PB_limits!$I54)/(PB_limits!$G54-PB_limits!$I54))</f>
+        <v>0.81433801525000005</v>
+      </c>
+      <c r="F53" s="11">
+        <f>+IF((ValforCalc!H53-PB_limits!$G54)/(PB_limits!$H54-PB_limits!$G54)+1&gt;1,(ValforCalc!H53-PB_limits!$G54)/(PB_limits!$H54-PB_limits!$G54)+1,(ValforCalc!H53-PB_limits!$I54)/(PB_limits!$G54-PB_limits!$I54))</f>
+        <v>0.794087981</v>
+      </c>
+      <c r="G53" s="11">
+        <f>+IF((ValforCalc!I53-PB_limits!$G54)/(PB_limits!$H54-PB_limits!$G54)+1&gt;1,(ValforCalc!I53-PB_limits!$G54)/(PB_limits!$H54-PB_limits!$G54)+1,(ValforCalc!I53-PB_limits!$I54)/(PB_limits!$G54-PB_limits!$I54))</f>
+        <v>0.80501047300000006</v>
+      </c>
+      <c r="H53" s="11">
+        <f>+IF((ValforCalc!J53-PB_limits!$G54)/(PB_limits!$H54-PB_limits!$G54)+1&gt;1,(ValforCalc!J53-PB_limits!$G54)/(PB_limits!$H54-PB_limits!$G54)+1,(ValforCalc!J53-PB_limits!$I54)/(PB_limits!$G54-PB_limits!$I54))</f>
+        <v>0.67131926124999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="11">
+        <f>+IF((ValforCalc!F54-PB_limits!$G55)/(PB_limits!$H55-PB_limits!$G55)+1&gt;1,(ValforCalc!F54-PB_limits!$G55)/(PB_limits!$H55-PB_limits!$G55)+1,(ValforCalc!F54-PB_limits!$I55)/(PB_limits!$G55-PB_limits!$I55))</f>
+        <v>1.3696002119944999</v>
+      </c>
+      <c r="E54" s="11">
+        <f>+IF((ValforCalc!G54-PB_limits!$G55)/(PB_limits!$H55-PB_limits!$G55)+1&gt;1,(ValforCalc!G54-PB_limits!$G55)/(PB_limits!$H55-PB_limits!$G55)+1,(ValforCalc!G54-PB_limits!$I55)/(PB_limits!$G55-PB_limits!$I55))</f>
+        <v>1.5407921103425852</v>
+      </c>
+      <c r="F54" s="11">
+        <f>+IF((ValforCalc!H54-PB_limits!$G55)/(PB_limits!$H55-PB_limits!$G55)+1&gt;1,(ValforCalc!H54-PB_limits!$G55)/(PB_limits!$H55-PB_limits!$G55)+1,(ValforCalc!H54-PB_limits!$I55)/(PB_limits!$G55-PB_limits!$I55))</f>
+        <v>1.5549764958466552</v>
+      </c>
+      <c r="G54" s="11">
+        <f>+IF((ValforCalc!I54-PB_limits!$G55)/(PB_limits!$H55-PB_limits!$G55)+1&gt;1,(ValforCalc!I54-PB_limits!$G55)/(PB_limits!$H55-PB_limits!$G55)+1,(ValforCalc!I54-PB_limits!$I55)/(PB_limits!$G55-PB_limits!$I55))</f>
+        <v>1.4059349154335496</v>
+      </c>
+      <c r="H54" s="11">
+        <f>+IF((ValforCalc!J54-PB_limits!$G55)/(PB_limits!$H55-PB_limits!$G55)+1&gt;1,(ValforCalc!J54-PB_limits!$G55)/(PB_limits!$H55-PB_limits!$G55)+1,(ValforCalc!J54-PB_limits!$I55)/(PB_limits!$G55-PB_limits!$I55))</f>
+        <v>1.4432272826327952</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="11">
+        <f>+IF((ValforCalc!F55-PB_limits!$G56)/(PB_limits!$H56-PB_limits!$G56)+1&gt;1,(ValforCalc!F55-PB_limits!$G56)/(PB_limits!$H56-PB_limits!$G56)+1,(ValforCalc!F55-PB_limits!$I56)/(PB_limits!$G56-PB_limits!$I56))</f>
+        <v>2.0082605283333335</v>
+      </c>
+      <c r="E55" s="11">
+        <f>+IF((ValforCalc!G55-PB_limits!$G56)/(PB_limits!$H56-PB_limits!$G56)+1&gt;1,(ValforCalc!G55-PB_limits!$G56)/(PB_limits!$H56-PB_limits!$G56)+1,(ValforCalc!G55-PB_limits!$I56)/(PB_limits!$G56-PB_limits!$I56))</f>
+        <v>2.1965667010000001</v>
+      </c>
+      <c r="F55" s="11">
+        <f>+IF((ValforCalc!H55-PB_limits!$G56)/(PB_limits!$H56-PB_limits!$G56)+1&gt;1,(ValforCalc!H55-PB_limits!$G56)/(PB_limits!$H56-PB_limits!$G56)+1,(ValforCalc!H55-PB_limits!$I56)/(PB_limits!$G56-PB_limits!$I56))</f>
+        <v>2.2282737890000002</v>
+      </c>
+      <c r="G55" s="11">
+        <f>+IF((ValforCalc!I55-PB_limits!$G56)/(PB_limits!$H56-PB_limits!$G56)+1&gt;1,(ValforCalc!I55-PB_limits!$G56)/(PB_limits!$H56-PB_limits!$G56)+1,(ValforCalc!I55-PB_limits!$I56)/(PB_limits!$G56-PB_limits!$I56))</f>
+        <v>2.2313333333333332</v>
+      </c>
+      <c r="H55" s="11">
+        <f>+IF((ValforCalc!J55-PB_limits!$G56)/(PB_limits!$H56-PB_limits!$G56)+1&gt;1,(ValforCalc!J55-PB_limits!$G56)/(PB_limits!$H56-PB_limits!$G56)+1,(ValforCalc!J55-PB_limits!$I56)/(PB_limits!$G56-PB_limits!$I56))</f>
+        <v>2.4483010570000001</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H46" xr:uid="{3A884DA1-BFCE-45C7-995C-FC06E5AACD4A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B44E7A-B07B-4ACA-9B8F-A4544C009154}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="19" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
@@ -8504,6 +9693,289 @@
         <v>63.158524040000003</v>
       </c>
     </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="19">
+        <v>24.4</v>
+      </c>
+      <c r="G47" s="19">
+        <v>51.3</v>
+      </c>
+      <c r="H47" s="19">
+        <v>59.4</v>
+      </c>
+      <c r="I47" s="18">
+        <v>62.56</v>
+      </c>
+      <c r="J47" s="19">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="18">
+        <v>7.4</v>
+      </c>
+      <c r="G49" s="18">
+        <v>11</v>
+      </c>
+      <c r="H49" s="18">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I49" s="18">
+        <v>5.46</v>
+      </c>
+      <c r="J49" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="19">
+        <v>17</v>
+      </c>
+      <c r="G50" s="19">
+        <v>38.9</v>
+      </c>
+      <c r="H50" s="19">
+        <v>45.8</v>
+      </c>
+      <c r="I50" s="18">
+        <v>48.71</v>
+      </c>
+      <c r="J50" s="19">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="18">
+        <v>103.20986480000001</v>
+      </c>
+      <c r="G51" s="18">
+        <v>208.16305249999999</v>
+      </c>
+      <c r="H51" s="18">
+        <v>206.7564581</v>
+      </c>
+      <c r="I51" s="18">
+        <v>177.7702889</v>
+      </c>
+      <c r="J51" s="18">
+        <v>207.4214972</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="18">
+        <v>50.864610390000003</v>
+      </c>
+      <c r="G52" s="18">
+        <v>90.200828799999996</v>
+      </c>
+      <c r="H52" s="18">
+        <v>87.982001010000005</v>
+      </c>
+      <c r="I52" s="18">
+        <v>76.554148830000003</v>
+      </c>
+      <c r="J52" s="18">
+        <v>95.051721900000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="18">
+        <v>2289.558094</v>
+      </c>
+      <c r="G53" s="18">
+        <v>3257.352061</v>
+      </c>
+      <c r="H53" s="18">
+        <v>3176.3519240000001</v>
+      </c>
+      <c r="I53" s="18">
+        <v>3220.04</v>
+      </c>
+      <c r="J53" s="18">
+        <v>2685.2770449999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="18">
+        <v>4475.8751000000002</v>
+      </c>
+      <c r="G54" s="18">
+        <v>4791.2959000000001</v>
+      </c>
+      <c r="H54" s="18">
+        <v>4720.5964000000004</v>
+      </c>
+      <c r="I54" s="18">
+        <v>4252.9799999999996</v>
+      </c>
+      <c r="J54" s="18">
+        <v>4468.9251999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="18">
+        <v>77.636784320000004</v>
+      </c>
+      <c r="G55" s="18">
+        <v>73.569196460000001</v>
+      </c>
+      <c r="H55" s="18">
+        <v>73.026472330000004</v>
+      </c>
+      <c r="I55" s="18">
+        <v>73.23</v>
+      </c>
+      <c r="J55" s="18">
+        <v>68.729466200000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
